--- a/finetuning/it_datasets/it_dataset/it_monastir_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_monastir_dataset.xlsx
@@ -654,7 +654,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a delightful Cafe, visit Le Bistrot at Monastir rond point de Globe Terrestre Monastir monastir, 5000. With a rating of 4.4, it's loved by locals and visitors alike. They're open from 06:30-00:00, so you can enjoy their delicious dishes at your convenience. For more details, call them at 51 900 500.</t>
+          <t>Le Bistrot is a cafe located in Monastir, Tunisia. It's known for its cheesecake and crepes. The cafe has a 4.4 rating on Google and is open from 6:30am to midnight. It's located at the roundabout of Monastir and has a phone number of 51 900 500. The cafe's latitude is 35.74613 and its longitude is 10.8240878.</t>
         </is>
       </c>
     </row>
@@ -757,9 +757,8 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out cafe andalouse located at QRFJ+G9H cafe andalouse, Monastir. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 06:00-23:00, but closed on []. To get there, use these GPS coordinates: 35.7736722, 10.83104. For more details, visit their website  or call them at 92 197 570.</t>
+          <t>**Café Andalouse:**
+Nestled in the heart of Monastir at coordinates (35.7736722, 10.83104), Café Andalouse is a popular café renowned for its inviting ambiance and exceptional offerings. Known for its refreshing juices and delectable menu, Café Andalouse offers a welcoming space for both locals and tourists to unwind. It has garnered positive reviews for its affordable pricing and cozy outdoor seating, making it an ideal destination for leisurely gatherings and casual dining.</t>
         </is>
       </c>
     </row>
@@ -862,9 +861,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out Le Bistrot + located at QRCC+9GP Le Bistrot +, Monastir. 
-This top-rated destination is perfect for Cafe lovers and only offers Cafe. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 07:00-00:00, but closed on mercredi. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, call them at 99 175 002.</t>
+          <t>Le Bistrot +, a highly-rated (4.5/5) cafe in Monastir, is renowned for its delectable cheesecakes. Open daily from 7 AM to midnight, except Wednesdays, the cafe offers a welcoming atmosphere. Located at coordinates (35.7692625, 10.819974), Le Bistrot + invites patrons to enjoy its cozy ambiance and indulge in its culinary delights.</t>
         </is>
       </c>
     </row>
@@ -971,7 +968,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in Monastir and looking for a cozy spot to unwind, head to Friends Coffee. Located at Friends Coffee, Monastir, this top-rated café is a haven for coffee enthusiasts. They offer a range of delicious beverages to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 07:30-22:00. To get there, use these GPS coordinates: 48.1436628, 17.1035427. For more details, visit their website at https://www.facebook.com/friendscoffee2014 or call them at 58 570 000.</t>
+          <t>Friends Coffee is a cozy cafe located in Monastir, offering a warm and friendly atmosphere. It boasts a rating of 4.3 out of 5, based on 67 reviews. Open from 7:30 AM to 10:00 PM daily, Friends Coffee is the perfect spot to relax and enjoy a cup of coffee or a light meal. It's conveniently located at coordinates (48.1436628, 17.1035427), making it easy to find and visit.</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1071,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a top-rated tea room, check out Le Bosphore located at QRG8+64C Le Bosphore, Monastir. This top-rated destination offers a cozy ambiance for tea lovers with a rating of 4.1. It's open daily from 07:00-01:00. To get there, use these GPS coordinates: 35.7755899, 10.8148194. For more details, call them at 73 479 113.</t>
+          <t>Le Bosphore is a tea room located in Monastir, Tunisia. It offers varied menus and a varied range of drinks among which you can have a good time while enjoying a good atmosphere. It is located at the coordinates (35.7755899, 10.8148194).</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1178,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in Monastir and looking for a cozy cafe, check out Kavos Coffee House located at Unnamed Road Monastir, 5000. This top-rated cafe is perfect for coffee lovers and offers a range of beverages to choose from. With a rating of 4.9, it's a must-visit spot. It's open during these hours: 10:00-22:00. To get there, use these GPS coordinates: 35.74613, 10.8240878. For more details, visit their website at https://instagram.com/kavos_coffeehouse%3Futm_source%3Dqr%26igshid%3DMzNlNGNkZWQ4Mg%3D%3D or call them at 22 399 000.</t>
+          <t>Kavos Coffee House is a popular cafe in Monastir, Tunisia. It is located at 35.74613, 10.8240878 and is open from 10:00-22:00. The cafe offers a variety of coffee, tea, and snacks, as well as a selection of board games. It is a popular spot for locals and tourists alike, and the staff is known for being friendly and welcoming.</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1281,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in monastir, don't miss Heritage coffee shop at QR9J+WW8 Heritage coffee shop, Av. 18 janvier 1952. Rated 4.2 out of 5, this popular Cafe is a must-visit for those who enjoy a great cup of coffee. Open 24 hours a day, you can pop in anytime for a caffeine fix or a bite to eat. For more information, visit their website or call 90 120 370.</t>
+          <t>Heritage coffee shop is a cafe located in Monastir, Tunisia, at the coordinates (35.769808695841, 10.831060566335). It is open 24 hours a day and offers bubble tea, among other items. It has received 20 reviews and has a rating of 4.2 out of 5.</t>
         </is>
       </c>
     </row>
@@ -1387,9 +1384,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out Barasti Coffee Shop located at QRHG+RM7 Barasti Coffee Shop, Rte de la Falaise, Monastir 5000. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 08:00-23:00, but closed on []. To get there, use these GPS coordinates: 35.74613, 10.8240878. For more details, visit their website at  or call them at 93 921 756.</t>
+          <t>Barasti Coffee Shop is a cafe located in Monastir. Its exact location is at QRHG+RM7 Barasti Coffee Shop, Rte de la Falaise. The cafe has a 4.1 rating based on 18 reviews and its main category is Cafe. The cafe offers various services and products related to its main category and is open from 08:00 to 23:00.</t>
         </is>
       </c>
     </row>
@@ -1492,10 +1487,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a great cafe, check out The Hobbit. 
-This top-rated spot is located at QR65+WHM The Hobbit, Unnamed Road, Monastir.
-With a rating of 4.7, it's a must-visit spot for cafe lovers. It's open during these hours: 08:00-00:00. 
-To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their website or call them at 27 954 991.</t>
+          <t>The Hobbit, located in Monastir (35.7692625, 10.819974), is a highly rated cafe (4.7) that opens daily from 8 AM to midnight. With 17 reviews, this popular spot offers a cozy ambiance and delicious food and beverages, making it a great place to relax and socialize.</t>
         </is>
       </c>
     </row>
@@ -1598,9 +1590,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a cozy Cafe, check out La Sqala Coffee &amp; Snacks located at QR2H+M2G La Sqala Coffee &amp; Snacks, Monastir. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 42.2160277, 12.418854. For more details, visit their website at https://www.google.com/maps/place/La+Sqala+Coffee+%26+Snacks/data=!4m7!3m6!1s0x1302133fc79657eb:0x3ead8b63bd1a7ae5!8m2!3d35.7516985!4d10.8275685!16s%2Fg%2F11h2fvsr8y!19sChIJ61eWxz8TAhMR5XoavWOLrT4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 52 156 503.</t>
+          <t>La Sqala Coffee &amp; Snacks is a cafe situated in Monastir. This cafe offers a cozy ambiance and a wide selection of coffee, snacks, and light meals. It is located in a convenient area, with coordinates (42.2160277, 12.418854). With a rating of 4.3 and 16 reviews, La Sqala Coffee &amp; Snacks has garnered positive feedback from its patrons.</t>
         </is>
       </c>
     </row>
@@ -1699,7 +1689,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in Monastir and looking for a great cafe, head to Cafe Artemisia at QRHJ+QGF. This top-rated destination offers a range of cafe options and is open from 07:00-23:30. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their website at https://www.google.com/maps/place/Cafe+Artemisia/data=!4m7!3m6!1s0x13026d319cf8d99b:0xf784dc94b1077eb6!8m2!3d35.7794251!4d10.8313035!16s%2Fg%2F11g8fxzxvx!19sChIJm9n4nDFtAhMRtn4HsZTchPc?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe Artemisia is located in Monastir, Tunisia. The cafe has a rating of 4.1 out of 5 stars and is open from 7:00 AM to 11:30 PM. The cafe offers a variety of coffee, tea, and pastries, as well as a selection of sandwiches and salads. The cafe is located at QRHJ+QGF, Monastir, Tunisia.</t>
         </is>
       </c>
     </row>
@@ -1798,7 +1788,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a great Cafe, check out Cafe Baba Ali located at QRG8+R55 Cafe Baba Ali, Rue Mohamed Salah Sayadi. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 06:00-23:00. To get there, use these GPS coordinates: 35.77805708864, 10.808604901183.</t>
+          <t>Cafe Baba Ali is a highly-rated cafe located in Monastir, Tunisia (35.77805708864, 10.808604901183). Offering a variety of food and drinks, it is a popular spot for locals and tourists alike. Its convenient location and welcoming atmosphere make it a great place to relax and enjoy some refreshments.</t>
         </is>
       </c>
     </row>
@@ -1901,9 +1891,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a great Cafe, check out Il Gusto located at QR99+VXX Il Gusto, Rond point Nafoura, Monastir. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 38.930185705491, -90.575569844622. For more details, visit their website at https://www.google.com/maps/place/Il+Gusto/data=!4m7!3m6!1s0x13021365e819e8b9:0x2619c4e8efd71210!8m2!3d35.7697348!4d10.8199715!16s%2Fg%2F11svlkk_yl!19sChIJuegZ6GUTAhMREBLX7-jEGSY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 56 926 142.</t>
+          <t>Il Gusto is a popular cafe located in Monastir, Tunisia, at the coordinates (38.930185705491, -90.575569844622). It offers a wide range of services, including 24-hour service, and has received positive reviews from customers, with an average rating of 4.0 out of 5.</t>
         </is>
       </c>
     </row>
@@ -2006,9 +1994,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out PortoFino cafe located at QR9P+WRC PortoFino cafe, Monastir. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 07:00-02:00, but closed on []. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D100089724386844%26mibextid%3DZbWKwL.</t>
+          <t>PortoFino Cafe is a highly-rated cafe located in Monastir, Tunisia. With a rating of 4.2 out of 5 and 10 reviews, it is a popular destination for locals and tourists alike. The cafe is known for its delicious food and drinks, as well as its friendly and welcoming staff. PortoFino Cafe is a great place to relax and enjoy a cup of coffee or tea, or to grab a quick bite to eat.</t>
         </is>
       </c>
     </row>
@@ -2107,9 +2093,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in Monastir and looking for a great Cafe, check out cafe 3 Aout located at QR9P+WRC cafe 3 Aout, Monastir. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 06:00-01:00, but closed on []. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their website at  or call them at .</t>
+          <t>Cafe 3 Aout is a cafe located in Monastir, Tunisia, at the coordinates (35.7692625, 10.819974). The cafe offers a variety of food and drinks, and is open from 6:00 AM to 1:00 AM, seven days a week. It has a rating of 4.2 out of 5 stars on Google Maps, based on 10 reviews.</t>
         </is>
       </c>
     </row>
@@ -2216,9 +2200,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a perfect Cafe, check out Blu Sky Coffee &amp; Fresh Drinks located at QRCQ+3F2 Blu Sky Coffee &amp; Fresh Drinks, Monastir. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 07:30-01:00. To get there, use these GPS coordinates: 10.2599233, 106.3841103. For more details, visit their website at https://www.facebook.com/BluSkyCoffee/ or call them at 93 126 929.</t>
+          <t>Blu Sky Coffee &amp; Fresh Drinks is a cafe located in Monastir, Vietnam. The cafe offers a variety of coffee and fresh drinks, and has a rating of 4.3 out of 5 stars on Google Maps. The cafe is open from 7:30 AM to 1:00 AM every day, and is located at the coordinates (10.2599233, 106.3841103).</t>
         </is>
       </c>
     </row>
@@ -2317,7 +2299,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out LE ROYAL located at QR74+CGX LE ROYAL, C100e, Monastir. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 07:00-23:00, but closed on []. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their website at https://www.google.com/maps/place/LE+ROYAL/data=!4m7!3m6!1s0x130212a5e85cc4cb:0xc3824fe6e5f41b9c!8m2!3d35.7636043!4d10.8063717!16s%2Fg%2F124ss93s8!19sChIJy8Rc6KUSAhMRnBv05eZPgsM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at [phone number].</t>
+          <t>Nestled in Monastir, LE ROYAL is a renowned cafe with a warm and inviting atmosphere. Located at QR74+CGX LE ROYAL, C100e, its prime location makes it easily accessible to both locals and visitors. With a rating of 4.4 based on 7 reviews, this establishment has garnered a reputation for excellence. Its daily operating hours are from 07:00 to 23:00, ensuring ample time to savor its offerings.</t>
         </is>
       </c>
     </row>
@@ -2420,8 +2402,8 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a great cafe, check out Lagusta's Monastir located at QRFF+XJQ Lagusta's Monastir, Rue de maroc, Monastir. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe categories to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 06:00-23:00. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, call them at 58 100 111.</t>
+          <t>**Lagusta's Monastir**
+Lagusta's Monastir is a cozy cafe in Monastir, Tunisia, located at coordinates (35.7692625, 10.819974), approximately 1344 meters away. It's a popular spot for locals and tourists alike, offering a warm and welcoming atmosphere with its friendly owner, Lagusta's Monastir (proprietaire). Though its website is unavailable, you can reach them via phone at 58 100 111. Operating daily from 6:00 AM to 11:00 PM, Lagusta's Monastir offers a delightful experience with its inviting ambiance and delectable treats, making it a must-visit for anyone seeking a relaxing coffee break or casual dining in the heart of Monastir.</t>
         </is>
       </c>
     </row>
@@ -2520,9 +2502,19 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out Cafe Mohamed Sayadi located at QRCC+7WV Cafe Mohamed Sayadi, Av. du combattant supreme.
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from.
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 06:00-23:00, but closed on [empty]. To get there, use these GPS coordinates: 35.770827984422, 10.822935226419. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Mohamed+Sayadi/data=!4m7!3m6!1s0x130212b584378d31:0x655bb2c74d2a5ce7!8m2!3d35.7707411!4d10.8223109!16s%2Fg%2F11c5zsrfyx!19sChIJMY03hLUSAhMR51wqTceyW2U?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>The Café Mohamed Sayadi is a top-rated cafe located in Monastir, Tunisia. It's known for its cozy atmosphere and delicious coffee. The cafe is open from 6 am to 11 pm, so you can enjoy a cup of coffee any time of day. The cafe also offers a variety of pastries and snacks.
+**Location:** 
+Café Mohamed Sayadi is located in the heart of Monastir, on Av. du combattant supreme. It's easy to get to by car or public transportation.
+**Coordinates:** 
+35.770827984422, 10.822935226419
+**Rating:** 
+4.4 out of 5 stars
+**Reviews:** 
+The Café Mohamed Sayadi has received rave reviews from customers. People love the coffee, the atmosphere, and the friendly staff.
+**Menu:** 
+The Café Mohamed Sayadi offers a variety of coffee drinks, as well as pastries and snacks. You can find everything from lattes to cappuccinos to espressos. The cafe also offers a selection of teas and juices.
+**Amenities:** 
+The Café Mohamed Sayadi has free Wi-Fi, so you can stay connected while you enjoy your coffee. The cafe also has a small outdoor seating area, so you can enjoy your coffee in the fresh air.</t>
         </is>
       </c>
     </row>
@@ -2621,7 +2613,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a top-rated cafe, head to Cafe Morjena on QRJH+3CSP Rte de la Falaise. With a 4.5-star rating, it's a must-visit spot for cafe lovers. Cafe Morjena is open from 08:00 to 01:00 during workdays and offers a cozy ambiance perfect for relaxing or catching up with friends. For more details, visit their website or give them a call.</t>
+          <t>Café Morjena is a cozy café located in Monastir, Tunisia. It offers a variety of beverages, including coffee, tea, and juices, as well as a selection of pastries and light snacks. The café is situated on a quiet street near the city center, making it a great place to relax and enjoy a cup of coffee. The café is open from 8am to 1am daily, and offers free WiFi to its customers.</t>
         </is>
       </c>
     </row>
@@ -2720,7 +2712,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a top-rated cafe, check out Cafe Oscar located at QR8H+VP2 Cafe Oscar, Unnamed Road, Monastir. This cafe offers a range of categories to choose from and is perfect for cafe lovers. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 06:30-23:00. To get there, use these GPS coordinates: 35.7692625, 10.819974.</t>
+          <t>Cafe Oscar is a highly-rated cafe in Monastir, Tunisia, with a 4.8 rating based on four reviews. Located at QR8H+VP2 Unnamed Road, Monastir, it offers a cozy atmosphere and a wide range of cafe offerings.</t>
         </is>
       </c>
     </row>
@@ -2819,7 +2811,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out L'artisto coffee located at La gare, Monastir 5000. This top-rated destination is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot. It's open 24h/24, but closed on dimanche. To get there, use these GPS coordinates: 35.74613, 10.8240878.</t>
+          <t>L'Artiste coffee is a cafe located at (35.74613, 10.8240878). It has a 5-star rating and serves as a meeting point, offering a cozy atmosphere for customers.</t>
         </is>
       </c>
     </row>
@@ -2918,7 +2910,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a great Cafe, check out CAPRICE CAFE located at QR76+PG3 CAPRICE CAFE, CAP MARINA, Monastir 5000. It's a top-rated destination perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 35.74613, 10.8240878. For more details, visit their website at https://www.google.com/maps/place/CAPRICE+CAFE/data=!4m7!3m6!1s0x130212b00000004f:0x16ae5ed85579eb5d!8m2!3d35.764252!4d10.811289!16s%2Fg%2F11fylkc434!19sChIJTwAAALASAhMRXet5VdherhY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 73 462 815.</t>
+          <t>**CAPRICE CAFE** is a cozy locale situated at the coordinates (35.74613, 10.8240878) in Monastir, Tunisia. This popular café is known for its inviting atmosphere and delicious offerings. Locals and tourists alike flock to CAPRICE CAFE to enjoy a delightful breakfast, lunch, or dinner. With its convenient location near the marina, this café offers a perfect spot to unwind and soak up the local ambiance.</t>
         </is>
       </c>
     </row>
@@ -3021,10 +3013,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>If you're in Monastir, check out Cafe Hawai Monastir, located at Falaise, Monastir 5065. 
-This top-rated tea room is perfect for tea lovers and is open from 07:00-01:00 every day. 
-With a 5.0 rating, it's a must-visit spot. To get there, use these GPS coordinates: 35.768375, 10.7648527. 
-For more details, call them at 54 602 523.</t>
+          <t>Cafe Hawai Monastir is a tea room located in Monastir, Tunisia. It is open from 7am to 1am and offers a variety of teas and other beverages. The cafe is located at the following address: Cafe Hawai Monastir, Falaise, Monastir 5065.</t>
         </is>
       </c>
     </row>
@@ -3127,10 +3116,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a great Cafe to visit, check out Le Bistrot located at Le Bistrot, Monastir rond point de Globe Terrestre Monastir monastir, 5000. 
-This top-rated destination is perfect for Cafe enthusiasts. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 06:30-00:00, but closed on []. 
-To get there, use these GPS coordinates: 35.74613, 10.8240878. For more details, visit their website at  or call them at 51 900 500.</t>
+          <t>Le Bistrot is a 4.4-rated cafe located in Monastir, Tunisia at coordinates (35.74613, 10.8240878). It is owned by Le Bistrot (proprietaire) and is open from 6:30 am to 12 am every day. The cafe specializes in cheesecakes and crepes, with its most popular menu items being the strawberry cheesecake, the chocolate crepes, and the banana crepes.</t>
         </is>
       </c>
     </row>
@@ -3233,9 +3219,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a great Cafe, check out Le Bistrot + located at QRCC+9GP Le Bistrot +, Monastir. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 07:00-00:00, but closed on mercredi. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their website at  or call them at 99 175 002.</t>
+          <t>Le Bistrot + is a highly-rated cafe in Monastir, Tunisia, with a 4.5-star rating based on 75 reviews. Located at coordinates (35.7692625, 10.819974), it offers a welcoming atmosphere, serving coffee and other beverages in the heart of the city.</t>
         </is>
       </c>
     </row>
@@ -3342,9 +3326,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a great place to grab a cup of coffee, check out Kavos Coffee House located at Unnamed Road Monastir, 5000. 
-This top-rated destination is perfect for Cafe lovers and offers a cozy and welcoming atmosphere. 
-With a rating of 4.9, it's a must-visit spot. It's open during these hours: 10:00-22:00. To get there, use these GPS coordinates: 35.74613, 10.8240878. For more details, visit their website at https://instagram.com/kavos_coffeehouse%3Futm_source%3Dqr%26igshid%3DMzNlNGNkZWQ4Mg%3D%3D or call them at 22 399 000.</t>
+          <t>Kavos Coffee House is located in Monastir, Tunisia. It has a rating of 4.9 stars out of 60 reviews. The coffee house is open from 10:00-22:00 Monday - Sunday. Kavos Coffee House is a cafe that offers a variety of coffee, tea, and pastries. The cafe is located in a convenient location, just off the main road. It is a popular spot for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -3447,7 +3429,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a great place to eat, head to La Scala. Located at QP5P+78Q La Scala, it's a top-rated destination for restaurant lovers. With a rating of 4.4, it's a must-visit spot. It's open daily from 08:00-00:00. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, call them at 28 401 411.</t>
+          <t>La Scala, located in Monastir, is a popular restaurant offering a satisfying dining experience with its delectable burgers and other menu items. Its convenient location and extended operating hours from 8 AM to midnight make it an ideal spot for various occasions. With positive reviews and a 4.4-star rating, La Scala is a recommended choice for those seeking quality food and service in Monastir.</t>
         </is>
       </c>
     </row>
@@ -3546,9 +3528,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>If you're in Monastir and looking for a cozy place to relax, head to Cafe El-Majless at QR73+W2G. 
-This top-rated cafe is perfect for coffee lovers and offers a range of beverages to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 05:00-22:30, but closed on none. To get there, use these GPS coordinates: 35.7650028, 10.8025456. For more details, visit their website at N/A or call them at N/A.</t>
+          <t>Cafe El-Majless is a cafe located in Monastir, Tunisia. It is rated 4.3 stars out of 5 based on 40 reviews. The cafe is open from 05:00 to 22:30 and is located at the following coordinates: 35.7650028, 10.8025456.</t>
         </is>
       </c>
     </row>
@@ -3651,9 +3631,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out Skanes Palm located at QP5P+78Q Skanes Palm, Monastir. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 10:30-01:30, but closed on . To get there, use these GPS coordinates: 35.7749, 10.79464. For more details, visit their website or call them at 97 888 884.</t>
+          <t>Skanes Palm is a 4.5-star rated restaurant located in Monastir, Tunisia, with 21 reviews. Its precise location is at (35.7749, 10.79464).</t>
         </is>
       </c>
     </row>
@@ -3756,8 +3734,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>If you're in Monastir and looking for a great cup of coffee, check out Heritage coffee shop located at QR9J+WW8 Heritage coffee shop, Av. 18 janvier 1952. This top-rated cafe is perfect for coffee lovers and offers a range of drinks to choose from including bubble tea. 
-With a rating of 4.2, it's a must-visit spot. It's open 24 hours a day, 7 days a week. To get there, use these GPS coordinates: 35.769808695841, 10.831060566335. For more details, visit their website or call them at 90 120 370.</t>
+          <t>Heritage coffee shop is a cafe located in Monastir, Tunisia. It is open 24 hours a day and offers bubble tea. The cafe has a 4.2 rating on Google and has received 20 reviews.</t>
         </is>
       </c>
     </row>
@@ -3860,9 +3837,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out Barasti Coffee Shop located at QRHG+RM7 Barasti Coffee Shop, Rte de la Falaise, Monastir 5000. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 08:00-23:00. To get there, use these GPS coordinates: 35.74613, 10.8240878. For more details, visit their website or call them at 93 921 756.</t>
+          <t>Barasti Coffee Shop is located in Monastir, Tunisia, at the coordinates (35.74613, 10.8240878). The coffee shop has a rating of 4.1 out of 5, based on 18 reviews, and is open from 8 AM to 11 PM, seven days a week. Barasti Coffee Shop offers a variety of coffee drinks, as well as pastries and other snacks.</t>
         </is>
       </c>
     </row>
@@ -3965,7 +3940,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a cozy Cafe, check out La Sqala Coffee &amp; Snacks located at QR2H+M2G La Sqala Coffee &amp; Snacks, Monastir. This top-rated destination is perfect for Cafe lovers. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on . To get there, use these GPS coordinates: 42.2160277, 12.418854. For more details, visit their website at  or call them at 52 156 503.</t>
+          <t>La Sqala Coffee &amp; Snacks is a popular cafe located in La Sqala, Monastir. It offers a wide selection of hot and cold drinks, as well as snacks and pastries. The cafe is conveniently located just north of the city center, making it a great place to stop for a quick bite or a leisurely coffee break.</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4039,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>If you're in Monastir and looking for a great cafe, check out Cafe 51 located at QQCV+HV5. This top-rated destination is perfect for cafe lovers. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 04:30-00:00. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+51/data=!4m7!3m6!1s0x13020d540151a4f3:0xe35c8edd81e1263e!8m2!3d35.7713797!4d10.7947305!16s%2Fg%2F11cpn_2vyl!19sChIJ86RRAVQNAhMRPibhgd2OXOM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Cafe 51 is a cafe located in Monastir at the coordinates (35.7692625, 10.819974). It has a rating of 4.2 and is open from 04:30 to 00:00.</t>
         </is>
       </c>
     </row>
@@ -4163,7 +4138,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out Cafe Artemisia located at QRHJ+QGF Cafe Artemisia, Monastir. This top-rated destination is perfect for Cafe lovers. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 07:00-23:30. To get there, use these GPS coordinates: 35.7692625, 10.819974.</t>
+          <t>Nestled in the heart of Monastir, Cafe Artemisia is a renowned cafe that stands out with its cozy atmosphere and exceptional offerings. It boasts a stellar rating of 4.1, earned through its commitment to serving delectable coffee and delectable pastries. With its prime location, it's effortlessly accessible, allowing patrons to indulge in a relaxing cafe experience.</t>
         </is>
       </c>
     </row>
@@ -4262,7 +4237,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>Attention monastir locals! Looking to unwind in a cozy atmosphere? Visit Cafe Baba Ali, nestled at QRG8+R55 Cafe Baba Ali, Rue Mohamed Salah Sayadi. This top-rated Cafe offers a delightful ambiance, perfect for those who love to indulge in their favorite coffee creations. With a 4.1-star rating based on 13 reviews, it's a must-visit spot. Get your caffeine fix daily between 06:00-23:00. To find Cafe Baba Ali, simply follow these coordinates: 35.77805708864, 10.808604901183.</t>
+          <t>Cafe Baba Ali is a well-rated cafe located in Monastir (Tunisia). Its coordinates are (35.77805708864, 10.808604901183).</t>
         </is>
       </c>
     </row>
@@ -4365,7 +4340,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a top-rated Cafe, check out PortoFino cafe located at QR9P+WRC PortoFino cafe, Monastir. This popular destination is perfect for Cafe lovers and has a rating of 4.2. It's open during these hours: 07:00-02:00, but closed on []. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D100089724386844%26mibextid%3DZbWKwL.</t>
+          <t>PortoFino cafe is a highly-rated 4.2-star cafe located in Monastir (coordinates: 35.7692625, 10.819974). It is open from 7:00 AM to 2:00 AM and offers a wide variety of amenities, including a website (https://www.facebook.com/profile.php%3Fid%3D100089724386844%26mibextid%3DZbWKwL), a featured image (https://lh5.googleusercontent.com/p/AF1QipP5MhOWa1kqFvljGFt8N5YAFdOZ1MZiivrczTME=w408-h724-k-no), and an owner profile (with the ID 105217298479813830703).</t>
         </is>
       </c>
     </row>
@@ -4464,9 +4439,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a great cafe, check out cafe 3 Aout located at QR9P+WRC cafe 3 Aout. 
-This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 06:00-01:00. To get there, use these GPS coordinates: 35.7692625, 10.819974.</t>
+          <t>Nestled in the heart of Monastir (35.7692625, 10.819974), Cafe 3 Aout offers a cozy atmosphere and a delightful menu. With a 4.2-star rating, this charming cafe is a popular spot for breakfast, lunch, and evening gatherings.</t>
         </is>
       </c>
     </row>
@@ -4573,7 +4546,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>If you're in monastir, head over to Blu Sky Coffee &amp; Fresh Drinks at QRCQ+3F2 Blu Sky Coffee &amp; Fresh Drinks, Monastir for a delightful cafe experience. Rated 4.3 out of 5 by satisfied customers, it offers you top-notch cafe services. Don't forget to try their other offerings too. Operating hours are from 07:30-01:00 during the week. To find out more, you can visit their website at https://www.facebook.com/BluSkyCoffee/ or call them at 93 126 929.</t>
+          <t>Blu Sky Coffee &amp; Fresh Drinks is a cafe located in Monastir, Tunisia. It is open from 7:30 am to 1:00 am and is rated 4.3 out of 5 stars on Google. Blu Sky Coffee &amp; Fresh Drinks offers a variety of coffee drinks, fresh juices, and snacks. It is located at QRCQ+3F2 Blu Sky Coffee &amp; Fresh Drinks, Monastir, Tunisia.</t>
         </is>
       </c>
     </row>
@@ -4676,8 +4649,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a top-rated spot for Cafe, make sure to check out Lagusta's Monastir at QRFF+XJQ Lagusta's Monastir, Rue de maroc, Monastir. With a rating of 4.5, this cafe offers a perfect escape for all Cafe lovers. 
-It's open during these hours: 06:00-23:00, but closed on . For more details, call them at 58 100 111.</t>
+          <t>Lagusta's Monastir, located in the heart of Monastir, invites you to indulge in a cozy ambiance and delectable culinary delights. The cafe, situated at (35.7692625, 10.819974), offers a wide selection of beverages and an array of tasty treats, making it an ideal destination for casual gatherings or a relaxing break.</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4748,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out Cafe Mohamed Sayadi located at QRCC+7WV Cafe Mohamed Sayadi, Av. du combattant supreme. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 06:00-23:00. To get there, use these GPS coordinates: 35.770827984422, 10.822935226419.</t>
+          <t>Cafe Mohamed Sayadi is a cafe located in Monastir, Tunisia. It is open from 6:00 AM to 11:00 PM every day and offers a variety of food and drinks. The cafe has a rating of 4.4 out of 5 stars on Google Maps, and is located at QRCC+7WV Cafe Mohamed Sayadi, Av. du combattant supreme, Monastir.</t>
         </is>
       </c>
     </row>
@@ -4875,7 +4847,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a great cafe, check out Cafe Castello. Salon de the located at QR73+4VG Cafe Castello. Salon de the, Monastir. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.2, it's a must-visit spot in monastir. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 35.61667, 10.75. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Castello.+Salon+de+the/data=!4m7!3m6!1s0x130212a64b778f9f:0xbfa6ac304a10d000!8m2!3d35.7628028!4d10.8046997!16s%2Fg%2F11gf3t3w90!19sChIJn493S6YSAhMRANAQSjCspr8?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Cafe Castello. Salon de the is a cafe located in Monastir, Tunisia, at coordinates (35.61667, 10.75). It is open from 6:00 AM to midnight every day of the week. The cafe offers a variety of coffee drinks, teas, and pastries. It also has a pleasant ambiance, making it a great place to relax and enjoy a drink.</t>
         </is>
       </c>
     </row>
@@ -4974,9 +4946,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a great Cafe, check out Cafe Morjena located at QRJH+3CSP Rte de la Falaise, Monastir. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 08:00-01:00, but closed on none. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Morjena/data=!4m7!3m6!1s0x13026d8f787fe8d1:0x9b6fc085fedb1a32!8m2!3d35.7786165!4d10.8295036!16s%2Fg%2F11g3yh3dsm!19sChIJ0eh_eI9tAhMRMhrb_oXAb5s?authuser=0&amp;hl=fr&amp;rclk=1 or call them at none.</t>
+          <t>Cafe Morjena is a popular cafe located in Monastir, Tunisia. It offers a wide variety of food and drinks, including coffee, tea, pastries, and sandwiches. It is known for its friendly staff and welcoming atmosphere. The cafe is conveniently located near the city center and is a great place to relax and enjoy a bite to eat or a cup of coffee.</t>
         </is>
       </c>
     </row>
@@ -5075,7 +5045,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>If you happen to be in monastir and looking for a great cafe to visit, then head over to Cafe Oscar at QR8H+VP2 Cafe Oscar, Unnamed Road. This place has a rating of 4.8 and is open from 6:30 AM to 11:00 PM. You can check out their featured image at https://lh5.googleusercontent.com/p/AF1QipNFw-H2J9HKOknohsUi_mBhnc5S_eaJfO4eWrj0=w408-h544-k-no</t>
+          <t>Cafe Oscar is a highly-rated cafe located in Monastir, Tunisia. It is open from 6:30 am to 11 pm and offers a cozy ambiance for enjoying coffee and snacks. The cafe is easily accessible, with coordinates (35.7692625, 10.819974) and an address on Unnamed Road in Cafe Oscar, QR8H+VP2.</t>
         </is>
       </c>
     </row>
@@ -5174,8 +5144,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out L'artisto coffee located at La gare, Monastir 5000. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on dimanche. To get there, use these GPS coordinates: 35.74613, 10.8240878. For more details, visit their website at https://www.google.com/maps/place/L%27artisto+coffee/data=!4m7!3m6!1s0x13021371f0250929:0x98939c0257dcd260!8m2!3d35.7704388!4d10.82687!16s%2Fg%2F11tcz26__v!19sChIJKQkl8HETAhMRYNLcVwKck5g?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>L'artisto coffee is a cafe located in Monastir, Tunisia. It has a rating of 5.0 and is open 24 hours a day. The cafe is closed on Sundays. It offers a variety of coffee drinks, as well as other beverages and snacks. The cafe is located at (35.74613, 10.8240878).</t>
         </is>
       </c>
     </row>
@@ -5274,7 +5243,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a great Cafe, check out CAPRICE CAFE located at CAP MARINA, Monastir 5000. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 35.74613, 10.8240878. For more details, visit their website at .</t>
+          <t>CAPRICE CAFE is a cafe located in Monastir, Tunisia, at the coordinates (35.74613, 10.8240878). It is well-rated, with a score of 4.0 out of 5 based on 2 reviews. The cafe is known for its coffee and other beverages, as well as its laid-back atmosphere, making it a popular spot for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -5377,9 +5346,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out Cafe Hawai Monastir located at Falaise, Monastir 5065. 
-This top-rated destination is perfect for Salon de the lovers. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-01:00. To get there, use these GPS coordinates: 35.768375, 10.7648527. For more details, visit their website  or call them at 54 602 523.</t>
+          <t>Café Hawai Monastir is a tea room located in Monastir, Tunisia. It is open from 7:00 AM to 1:00 AM and offers a wide variety of tea. The cafe is also known for its friendly staff and its cozy atmosphere. Reviews from customers have praised the quality of the tea and the service.</t>
         </is>
       </c>
     </row>
@@ -5486,9 +5453,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a place to stay, check out Dar Benti located at Dar Benti, Beb El Gharbi- Avenue Mahmoud Bourguiba Monastir, 5000. 
-This top-rated destination is perfect for Chambre d'hotes lovers. 
-With a rating of 4.9, it's a must-visit spot. To get there, use these GPS coordinates: 35.773203449521, 10.828038937757. For more details, visit their website at http://www.darbenti.com/ or call them at 25 020 036.</t>
+          <t>Dar Benti is a refined guesthouse located in the heart of Monastir, Tunisia. It offers 4.9 stars rated sober accommodations in a charming house with an outdoor pool, a hammam, and complimentary breakfast. With 60 positive reviews and a featured image showcasing its beautiful architecture, Dar Benti is the perfect accommodation for a relaxing and memorable stay in Monastir.</t>
         </is>
       </c>
     </row>
@@ -5583,7 +5548,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a place to stay, check out Hotel Elhabib located at QR76+PG3 Hotel Elhabib, Monastir. This top-rated hotel is perfect for Hotel lovers. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 35.7720592, 10.83683. For more details, visit their website or call them at 29 687 283.</t>
+          <t>Hôtel Elhabib is located in Monastir, Tunisia at the coordinates (35.7720592, 10.83683). With a 4.3-star rating and 7 reviews, it is a highly-recommended option for accommodation in the area. For more information about the hotel, visit their website or contact them at +216 29 687 283.</t>
         </is>
       </c>
     </row>
@@ -5682,8 +5647,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a top-rated hotel, check out Le Soleil Bella Vista - Couple and family only located at QQ98+VPF Zone Touristique Skanes, Monastir 5000. 
-This hotel offers a range of categories and has a rating of 4.0. To get there, use these GPS coordinates: 35.74613, 10.8240878. For more details, call them at 73 325 334.</t>
+          <t>Le Soleil Bella Vista welcomes couples and families exclusively, in the heart of the Skanes Tourist Area in Monastir (Tunisia), offering 6 rooms, a restaurant, and a bar near the beach. Located at the coordinates (35.74613, 10.8240878), this hotel boasts a 4.0 rating based on 6 reviews.</t>
         </is>
       </c>
     </row>
@@ -5786,7 +5750,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a top-rated Maison d'hotes, check out Villa Olympus - Monastir located at Villa Olympus - Monastir, Rond Point Zitouna, Ksar Hellal 5070. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.6467207, 10.8825579. For more details, visit their website at https://www.mariage.com.tn/product/villa-olympus/ or call them at 50 280 004.</t>
+          <t>Welcome to the luxurious Villa Olympus, located in the heart of Monastir, Tunisia. Our charming and elegant guest house offers a serene and unforgettable stay. Step into a sanctuary of comfort, surrounded by picturesque landscapes and warm hospitality. Our prime location near Rond Point Zitouna provides easy access to Monastir's vibrant city center and its top attractions.</t>
         </is>
       </c>
     </row>
@@ -5881,8 +5845,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a charming place to stay, check out Dar Lilia located at QRFG+XCX Dar Lilia, Rue de Tunis, Monastir. 
-This top-rated destination is perfect for Chambre d'hotes lovers and has a rating of 5.0, making it a must-visit spot. To get there, use these GPS coordinates: 35.764168089473, 10.822851781859. For more details, visit their website at https://www.google.com/maps/place/Dar+Lilia/data=!4m10!3m9!1s0x13026d38d230bd9b:0xb6295c02478912a1!5m2!4m1!1i2!8m2!3d35.774991!4d10.8261023!16s%2Fg%2F11sts2th2c!19sChIJm70w0jhtAhMRoRKJRwJcKbY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at None.</t>
+          <t>**Dar Lilia** is a guest house located in the city of Monastir, Tunisia, at the coordinates (35.764168089473, 10.822851781859). It is highly rated (5.0) and offers a unique experience in a traditional Tunisian setting. The guest house is a historical building, dating back to 1915, and provides its guests with a glimpse into the rich heritage of the region.</t>
         </is>
       </c>
     </row>
@@ -5989,9 +5952,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>If you're in Monastir and looking for a place to stay, Dar Benti located at Dar Benti, Beb El Gharbi- Avenue Mahmoud Bourguiba Monastir, 5000 is a great choice. 
-This top-rated destination is perfect for those who love Chambre d'hotes and offers a range of categories to choose from. 
-With a rating of 4.9, it's a must-visit spot. To get there, use these GPS coordinates: 35.773203449521, 10.828038937757. For more details, visit their website at http://www.darbenti.com/ or call them at 25 020 036.</t>
+          <t>Dar Benti is a charming guest house nestled in the heart of Monastir, boasting an array of amenities to cater to your comfort and relaxation. Immerse yourself in its refined ambiance, adorned with traditional architectural elements and offering cozy accommodations. Take a refreshing dip in the outdoor pool or indulge in a rejuvenating steam bath in the hammam. Savor delectable breakfasts amidst the tranquil surroundings. With its convenient location and exceptional hospitality, Dar Benti promises an unforgettable stay in this vibrant city.</t>
         </is>
       </c>
     </row>
@@ -6094,9 +6055,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a fun Hebergement experience, check out Sahara Beach Hotel located at QP7J+W6V Sahara Beach Hotel, Route Tourist. Dkhila, Monastir 5000. 
-This top-rated destination is perfect for Hebergement lovers and offers a range of other services to choose from. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 35.74613, 10.8240878. For more details, visit their website at https://www.google.com/maps/place/Sahara+Beach+H%C3%B4tel/data=!4m10!3m9!1s0x13026d49c186c60b:0x7e81a54569c46017!5m2!4m1!1i2!8m2!3d35.7648664!4d10.7305349!16s%2Fg%2F1td1ygrw!19sChIJC8aGwUltAhMRF2DEaUWlgX4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 73 461 088.</t>
+          <t>Sahara Beach Hotel is a resort located in Monastir, Tunisia (35.74613, 10.8240878). The hotel offers a range of amenities including multiple swimming pools, water slides, restaurants, bars, tennis courts, a kids' club, and an entertainment program. The hotel has received a 4.3-star rating from 583 reviews, with guests particularly praising the hotel's swimming pools, children's activities, and friendly staff.</t>
         </is>
       </c>
     </row>
@@ -6195,7 +6154,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a great hotel, check out Le Soleil Bella Vista - Couple and family only at QQ98+VPF Le Soleil Bella Vista - Couple and family only, Zone Touristique Skanes, Monastir 5000. This top-rated hotel is perfect for couples and families and offers a range of amenities to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.74613, 10.8240878. For more details, call them at 73 325 334.</t>
+          <t>Le Soleil Bella Vista - Couple and family only is a 4.0-rated hotel located in the Skanes Tourist Zone in Monastir, Tunisia. It is a popular destination for couples and families, and offers a variety of amenities, including a swimming pool, a restaurant, and a bar. The hotel is also close to the beach, making it a great place to relax and enjoy the sun and sand.</t>
         </is>
       </c>
     </row>
@@ -6298,9 +6257,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out Villa Olympus - Monastir located at Rond Point Zitouna, Ksar Hellal 5070. 
-This top-rated destination is perfect for Maison d'hotes lovers. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.6467207, 10.8825579. For more details, visit their website at https://www.mariage.com.tn/product/villa-olympus/ or call them at 50 280 004.</t>
+          <t>Villa Olympus - Monastir is a 5-star guest house located in the city of Monastir, Tunisia. It offers a website for more information and bookings, and has 2 reviews on Google Maps with a rating of 5.0. The guest house is located at the coordinates (35.6467207, 10.8825579) and can be contacted at 50 280 004.</t>
         </is>
       </c>
     </row>
@@ -6407,7 +6364,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a great hotel, check out One Resort Jockey located at One Resort Jockey, Monastir. This top-rated destination is perfect for hotel lovers and offers a range of hotel categories to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their website at https://onejockey.tn/ or call them at 73 521 833.</t>
+          <t>One Resort Jockey in Monastir offers comfortable rooms in a vibrant resort setting. It features a casual restaurant, two outdoor pools, and a relaxing spa. The resort's convenient location (35.7692625, 10.819974) makes it an ideal base for exploring the city.</t>
         </is>
       </c>
     </row>
@@ -6510,9 +6467,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a place to stay, check out Sahara Beach Hotel located at QP7J+W6V Sahara Beach Hotel, Route Tourist. Dkhila, Monastir 5000. 
-This top-rated destination is perfect for Hebergement lovers and offers a range of Hebergement to choose from. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 35.74613, 10.8240878. For more details, visit their website at https://www.google.com/maps/place/Sahara+Beach+H%C3%B4tel/data=!4m10!3m9!1s0x13026d49c186c60b:0x7e81a54569c46017!5m2!4m1!1i2!8m2!3d35.7648664!4d10.7305349!16s%2Fg%2F1td1ygrw!19sChIJC8aGwUltAhMRF2DEaUWlgX4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 73 461 088.</t>
+          <t>Sahara Beach Hotel is a simple seaside resort located in the city of Monastir and is 35.74613 latitude and 10.8240878 longitude. Sahara Beach Hotel offers several amenities such as restaurants, bars, tennis, multiple swimming pools and a kids club. It has a rating of 4.3 out of 5 from 583 reviews on Google Maps.</t>
         </is>
       </c>
     </row>
@@ -6615,7 +6570,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a luxurious getaway, consider Hilton Skanes Monastir Beach Resort located at Zone Touristique Dkhila, Monastir 5000. This top-rated destination is perfect for resort lovers and offers a range of amenities to choose from, including a spa and wellness center. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.74613, 10.8240878. For more details, visit their website at https://www.hilton.com/en/hotels/mirsmhi-hilton-skanes-monastir-beach-resort/%3FSEO_id%3DGMB-EMEA-HI-MIRSMHI or call them at 31 377 737.</t>
+          <t>The Hilton Skanes Monastir Beach Resort, located in Monastir, Tunisia, offers a 4-star beachfront experience with 426 reviews and a rating of 4.0. The resort boasts an on-site spa and wellness center, a variety of dining options including Italian cuisine, and entertainment facilities like a water park with toboggans and a heated indoor pool. Its convenient location near the beach and its proximity to Monastir city center make it an ideal destination for both leisure and business travelers.</t>
         </is>
       </c>
     </row>
@@ -6718,9 +6673,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a place to stay, check out Hotel Magic life Family Skanes located at QP7X+P37 Hotel Magic life Family Skanes, Monastir. 
-This top-rated destination is perfect for Hotel lovers and offers a range of Hotel, Parc aquatique to choose from. 
-With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 35.7749, 10.79464. For more details, visit their website at http://skanes.magichotelsandresorts.com/ or call them at 73 520 350.</t>
+          <t>Hotel Magic life Family Skanes is a beautiful hotel located in Monastir, Tunisia. It offers a wide range of amenities, including a swimming pool, a water park, tennis courts, and a variety of restaurants and bars. The hotel is also located near the beach, making it a great place to relax and enjoy the sun.</t>
         </is>
       </c>
     </row>
@@ -6827,9 +6780,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a place to stay, check out Marina Cap Monastir - Appart Hotel located at Port Marina Monastir, Monastir 5000. 
-This top-rated destination is perfect for Appartement de vacances lovers and offers a range of categories to choose from, including Appartement de vacances, Hotel, Motel, Complexe hotelier. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.78141, 10.83333. For more details, visit their website at http://www.marinamonastir.tn/ or call them at 73 462 305.</t>
+          <t>Marina Cap Monastir - Appart Hotel is a simple aparthotel located near the marina in Monastir, Tunisia. It offers basic accommodations with kitchenettes and balconies, making it an ideal choice for families and budget-minded travelers. The hotel has received generally positive reviews, with guests praising its convenient location, affordable prices, and spacious rooms. However, some guests have complained about noise from nearby construction and occasional issues with Wi-Fi connectivity.</t>
         </is>
       </c>
     </row>
@@ -6928,9 +6879,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out The Wave Hostel Monastir located at QRGG+PQ9, Auberge de Monastir 500, Sidi Sree Mosque, Monastir. 
-This top-rated destination is perfect for Hostel lovers and offers a range of Hostel to choose from. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: (35.7692625, 10.819974). For more details, visit their website at  or call them at 24 674 623.</t>
+          <t>The Wave Hostel Monastir is a hostel located in Monastir. It offers a 4.3 stars rating based on 19 reviews.</t>
         </is>
       </c>
     </row>
@@ -7029,7 +6978,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>If you're in Monastir and looking for a place to stay, check out Le Soleil Bella Vista - Couple and family only at QQ98+VPF Le Soleil Bella Vista - Couple and family only, Zone Touristique Skanes, Monastir 5000. This top-rated hotel is perfect for travelers looking for a relaxing getaway. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.74613, 10.8240878. For more details, call them at 73 325 334.</t>
+          <t>Le Soleil Bella Vista is a hotel located in Monastir, Tunisia. It offers stays for couples and families in a touristic zone. The hotel is rated 4.0 out of 5 stars based on 6 reviews. Its exact coordinates are (35.74613, 10.8240878).</t>
         </is>
       </c>
     </row>
@@ -7124,7 +7073,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a cozy retreat, consider Dar Lilia. Located on Rue de Tunis, this charming Chambre d'hotes has earned a stellar rating of 5.0. It's the perfect destination if you're interested in Chambre d'hotes. Dar Lilia is open during flexible hours and closed on specific days. For more information, you can visit their website or contact them directly.</t>
+          <t>Dar Lilia is a 5-star bed and breakfast located in Monastir, Tunisia. It offers a variety of amenities, including a private garden, a swimming pool, and a traditional Moroccan breakfast. The bed and breakfast is located in the heart of Monastir, just minutes away from the city's main attractions.</t>
         </is>
       </c>
     </row>
@@ -7223,7 +7172,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out One Resort Palm located at One Resort Palm, Zone Touristique Skanes, Monastir Near Jockey Club, 5000. This top-rated destination is perfect for Hotel bien-etre lovers and offers a range of Hotel bien-etre to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.74613, 10.8240878. For more details, visit their website or call them at 26 331 133.</t>
+          <t>One Resort Palm is a 5-star wellbeing hotel located in the Skanes tourist area in Monastir, Tunisia. It offers a wide range of amenities, including a spa, fitness center, swimming pool, and various restaurants and bars. The hotel is situated near the beach and is surrounded by lush gardens, providing a serene and relaxing atmosphere for its guests.</t>
         </is>
       </c>
     </row>
@@ -7330,7 +7279,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a relaxing getaway, check out One Resort Aqua Park &amp; Spa located at Route Touristique, Monastir 5029. This top-rated hotel is perfect for Hotel lovers and offers a range of amenities to choose from. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 35.620585, -95.074993. For more details, visit their website at https://oneaqua.tn/ or call them at 73 521 750.</t>
+          <t>One Resort Aqua Park &amp; Spa is a resort located near the city of Monastir. It offers all-inclusive accommodation, with sober rooms and bungalows, as well as numerous leisure activities. The resort has 4 swimming pools, a spa, several restaurants and a water park with slides. The resort is particularly popular with families for its entertainment and water park.</t>
         </is>
       </c>
     </row>
@@ -7433,7 +7382,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a luxurious stay, check out Hilton Skanes Monastir Beach Resort located at Zone Touristique Dkhila, Monastir 5000. This top-rated resort, with 426 reviews and a rating of 4.0, is a perfect destination for beach lovers and offers a range of amenities to choose from. It is open 24 hours a day and for more details, visit their website at https://www.hilton.com/en/hotels/mirsmhi-hilton-skanes-monastir-beach-resort/%3FSEO_id%3DGMB-EMEA-HI-MIRSMHI or call them at 31 377 737.</t>
+          <t>Hilton Skanes Monastir Beach Resort is a top-rated beach resort located in Monastir, Tunisia, with 426 reviews and a 4.0 rating. It offers a wide range of amenities including a spa, Italian restaurant, and multiple swimming pools. The resort is also known for its animation team and water slides. It is a popular destination for families and couples alike.</t>
         </is>
       </c>
     </row>
@@ -7536,9 +7485,7 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a place to stay, check out Hotel Magic life Family Skanes located at QP7X+P37 Hotel Magic life Family Skanes, Monastir. 
-This top-rated destination is perfect for hotel lovers and also offers Parc aquatique. 
-With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 35.7749, 10.79464. For more details, visit their website at http://skanes.magichotelsandresorts.com/ or call them at 73 520 350.</t>
+          <t>Hotel Magic life Family Skanes is a hotel located in Monastir, Tunisia. The hotel offers a variety of amenities, including a swimming pool, a water park, a tennis court, and an animation team. The hotel also offers all-inclusive packages. It is located at the coordinates (35.7749, 10.79464).</t>
         </is>
       </c>
     </row>
@@ -7645,7 +7592,7 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a place to stay, check out Marina Cap Monastir - Appart Hotel located at Marina Cap Monastir - Appart Hotel, Port Marina Monastir, Monastir 5000. This top-rated destination is perfect for Appartement de vacances lovers and offers a range of Appartement de vacances, Hotel, Motel, Complexe hotelier to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.78141, 10.83333. For more details, visit their website at http://www.marinamonastir.tn/ or call them at 73 462 305.</t>
+          <t>Marina Cap Monastir - Appart Hotel is a simple aparthotel located near the marina in Monastir. It offers basic accommodations with kitchenettes and balconies. The hotel has a 4.0 rating based on 105 reviews and is a popular choice for travelers looking for a budget-friendly option in Monastir.</t>
         </is>
       </c>
     </row>
@@ -7752,9 +7699,7 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>If you're in Monastir and looking for a comfortable stay, consider Dar Benti, located at Beb El Gharbi- Avenue Mahmoud Bourguiba Monastir, 5000. 
-This highly-rated guest house boasts a 4.9 rating and offers cozy rooms, making it perfect for those seeking a relaxing and authentic experience. 
-To get there, use these GPS coordinates: 35.773203449521, 10.828038937757. For more details, visit their website at http://www.darbenti.com/ or call them at 25 020 036.</t>
+          <t>Dar Benti is a sophisticated guesthouse conveniently located at Dar Benti, Beb El Gharbi- Avenue Mahmoud Bourguiba Monastir, 5000. It offers comfortable and refined accommodations, featuring an outdoor pool, a hammam, and complimentary breakfast. The establishment has received excellent reviews, boasting a 4.9 rating based on 60 reviews. With its prime location and exceptional amenities, Dar Benti is an ideal destination for a memorable stay in Monastir.</t>
         </is>
       </c>
     </row>
@@ -7849,10 +7794,7 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>If you're in Monastir and looking for a great hotel, check out Monastir, located at R54J+HJV Monastir, Tunis. 
-This top-rated destination is perfect for hotel lovers and is a must-visit spot with a rating of 4.5. 
-To get there, use these GPS coordinates: 35.7692625, 10.819974. 
-For more details, visit their website at https://www.google.com/maps/place/Monastir/data=!4m10!3m9!1s0x12fd35498258097d:0x24ccf3fdada47a04!5m2!4m1!1i2!8m2!3d36.8064948!4d10.1815316!16s%2Fg%2F11svh5j6hv!19sChIJfQlYgkk1_RIRBHqkrf3zzCQ?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Monastir is a hotel located in Monastir, Tunisia, at the coordinates (35.7692625, 10.819974). It is a 4.5-star hotel that offers a variety of amenities, including a swimming pool, a restaurant, and a bar. The hotel is also close to several attractions, including the Ribat of Monastir and the Medina of Monastir.</t>
         </is>
       </c>
     </row>
@@ -7947,9 +7889,7 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a top-rated hotel, check out Monastir located at R54J+HJV Monastir, Tunis. 
-This destination is perfect for Hotel lovers and offers a range of Hotel to choose from. 
-With a rating of 4.5, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Monastir/data=!4m10!3m9!1s0x12fd35498258097d:0x24ccf3fdada47a04!5m2!4m1!1i2!8m2!3d36.8064948!4d10.1815316!16s%2Fg%2F11svh5j6hv!19sChIJfQlYgkk1_RIRBHqkrf3zzCQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>**Monastir**, a prestigious hotel in Monastir, Tunisia, offers a luxurious and comfortable stay. Located at the heart of the city, it boasts a convenient location and easy access to all major attractions.</t>
         </is>
       </c>
     </row>
@@ -8056,7 +7996,7 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a place to stay, check out One Resort Aqua Park &amp; Spa located at One Resort Aqua Park &amp; Spa, Route Touristique, Monastir 5029. This top-rated destination is perfect for Hotel lovers and offers a range of Hotel categories to choose from. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 35.620585, -95.074993. For more details, visit their website at https://oneaqua.tn/ or call them at 73 521 750.</t>
+          <t>One Resort Aqua Park &amp; Spa is an all-inclusive beach resort in Monastir, Tunisia. It features four swimming pools, a spa, and multiple restaurants. The resort's 2,540 guest rooms are simply furnished. The resort is located at Route Touristique, Monastir 5029, Tunisia. It has a rating of 4.1 out of 5 stars based on 1,618 reviews.</t>
         </is>
       </c>
     </row>
@@ -8159,9 +8099,7 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun, check out Sahara Beach AquaPark Resort located at Sahara Beach AquaPark Resort, Monastir 5000. 
-This top-rated destination is perfect for Hotel lovers and offers a range of Hotel categories to choose from. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 35.74613, 10.8240878. For more details, visit their website at https://www.google.com/maps/place/Sahara+Beach+AquaPark+Resort/data=!4m10!3m9!1s0x13020cbf3d23dc45:0xc8e562ef76ad4c78!5m2!4m1!1i2!8m2!3d35.763991!4d10.729932!16s%2Fg%2F1hc27m28n!19sChIJRdwjPb8MAhMReEytdu9i5cg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 73 521 088.</t>
+          <t>The Sahara Beach AquaPark Resort is a 4.3 rated all-inclusive resort in Monastir, Tunisia, located at (35.74613, 10.8240878). It features themed bars, a private beach area, and a sprawling outdoor water park with slides, a mini-golf course, and more. The resort offers year-round entertainment, including live music, shows, and a discotheque. With 1444 reviews, guests praise the resort's friendly staff, clean facilities, and excellent value for money.</t>
         </is>
       </c>
     </row>
@@ -8268,9 +8206,7 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a relaxing stay, check out One Resort Jockey located at One Resort Jockey, Monastir. 
-This top-rated destination is perfect for Hotel lovers and offers a range of Hotel to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their website at https://onejockey.tn/ or call them at 73 521 833.</t>
+          <t>One Resort Jockey, located in Monastir (35.7692625, 10.819974), offers comfortable accommodations in a lively complex. It features a laid-back restaurant, two outdoor pools, and a relaxing spa for guests' well-being.</t>
         </is>
       </c>
     </row>
@@ -8373,7 +8309,7 @@
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a great place to stay, check out Sahara Beach Hotel located at QP7J+W6V Sahara Beach Hotel, Route Tourist. Dkhila, Monastir 5000. This top-rated destination is perfect for Hebergement lovers. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 35.74613, 10.8240878. For more details, call them at 73 461 088.</t>
+          <t>Sahara Beach Hotel is a resort in Monastir, Tunisia, located at coordinates (35.74613, 10.8240878). It features a range of amenities, including restaurants, bars, tennis courts, swimming pools, and a kids' club. The hotel has received positive reviews, with an average rating of 4.3 out of 5. The beach hotel is a popular destination for families and couples seeking a fun and relaxing vacation.</t>
         </is>
       </c>
     </row>
@@ -8476,9 +8412,10 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a great place to stay, check out Hilton Skanes Monastir Beach Resort located at Zone Touristique Dkhila, Monastir 5000. 
-This top-rated resort is perfect for resort lovers and offers a range of amenities to choose from, including a spa and wellness center. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.74613, 10.8240878. For more details, visit their website at https://www.hilton.com/en/hotels/mirsmhi-hilton-skanes-monastir-beach-resort/%3FSEO_id%3DGMB-EMEA-HI-MIRSMHI or call them at 31 377 737.</t>
+          <t>Nestled in the heart of Tunisia's Mediterranean coast, Hilton Skanes Monastir Beach Resort welcomes you with its luxurious resort experience. Situated at coordinates (35.74613, 10.8240878), this beachfront haven offers stunning views, pristine beaches, and a myriad of amenities.
+With 426 positive reviews and a 4.0-star rating, Hilton Skanes is renowned for its exceptional service, comfortable accommodations, and diverse dining options. Indulge in various cuisines at its Italian, international, and seafood restaurants, or unwind at its top-rated spa, offering a haven of relaxation and rejuvenation.
+The resort caters to families with its waterpark featuring exciting toboggans, providing endless fun for the little ones. Stay connected with complimentary Wi-Fi, and enhance your well-being at the state-of-the-art fitness center. The attentive staff, led by a dedicated supervisor, ensures your stay is memorable and hassle-free.
+Whether you seek a romantic getaway, a family-friendly vacation, or a rejuvenating retreat, Hilton Skanes Monastir Beach Resort promises an unforgettable experience amidst the captivating beauty of Tunisia's coastline.</t>
         </is>
       </c>
     </row>
@@ -8581,7 +8518,7 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a top-rated hotel, check out Hotel Magic life Family Skanes located at QP7X+P37 Hotel Magic life Family Skanes, Monastir. This 4.2-star hotel is perfect for hotel and water park lovers and offers a range of categories to choose from. With 113 reviews, it's a must-visit spot for travelers. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 35.7749, 10.79464. For more details, visit their website at http://skanes.magichotelsandresorts.com/ or call them at 73 520 350.</t>
+          <t>Hotel Magic Life Family Skanes is a 4.2 stars hotel located in Monastir, Tunisia. It offers a wide range of amenities, including a water park, a tennis court, and an animation team. The hotel is also close to the beach and offers all-inclusive packages. With 113 reviews, the hotel is highly rated by its guests, who praise its cleanliness, friendly staff, and great food.</t>
         </is>
       </c>
     </row>
@@ -8688,7 +8625,7 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a perfect place to stay, check out Marina Cap Monastir - Appart Hotel located at Port Marina Monastir, Monastir 5000. This top-rated destination is perfect for Appartement de vacances lovers and offers a range of categories to choose from, including Appartement de vacances, Hotel, Motel, Complexe hotelier. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.78141, 10.83333. For more details, visit their website at http://www.marinamonastir.tn/ or call them at 73 462 305.</t>
+          <t>Marina Cap Monastir - Appart Hotel is a simple and convenient holiday apartment located near the marina in Monastir, Tunisia. It offers comfortable and affordable accommodations with kitchenettes and balconies, making it a great option for families and groups. The hotel has received positive reviews for its friendly staff, clean rooms, and convenient location, making it a popular choice for tourists visiting the area.</t>
         </is>
       </c>
     </row>
@@ -8795,7 +8732,7 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>If you're in Monastir, Ribat de Monastir is a must-visit historical site located at QRGM+F6M Ribat de Monastir, Rte de la Falaise. Built in the 8th century, this well-preserved coastal fort now houses the Museum of Islamic Art. With a 4.6 rating and over 2,200 reviews, it's a top-rated destination for history enthusiasts. Visit during opening hours from 08:30-17:30 to explore its exhibits and admire its architectural beauty. For more details, call +42 223 476 or visit the official website.</t>
+          <t>Ribat de Monastir is a well-preserved 8th-century coastal fort located in Monastir, Tunisia. It now houses the Museum of Islamic Art and is a popular tourist attraction, renowned for its historical significance and architectural beauty. Situated at coordinates (35.75606, 10.79343), the Ribat offers a captivating blend of ancient history and cultural heritage.</t>
         </is>
       </c>
     </row>
@@ -8898,7 +8835,7 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a highly-rated seafood restaurant, check out Restaurant le Pirate Monastir located at Fishing Port 5000, El Ghedir, Monastir. This popular destination offers a range of seafood and Tunisian cuisine options to choose from. With a rating of 4.3 based on 890 reviews, it's a must-visit spot. It's open during these hours: 12:00-16:00, 19:00-23:00, but closed on Monday. To get there, use these GPS coordinates: (35.74613, 10.8240878). For more details, visit their website at https://www.google.com/maps/place/Restaurant+le+Pirate+Monastir/ or call them at 73 468 126.</t>
+          <t>Restaurant le Pirate Monastir is a 4.3-rated seafood restaurant with over 890 reviews. It offers a wide range of seafood dishes, as well as authentic Tunisian cuisine. The restaurant has a beautiful location in the Fishing Port of El Ghedir, offering breathtaking views of the Mediterranean Sea. It is open every day except Monday, with lunch and dinner hours. You can expect excellent service, delicious food, and a memorable dining experience at this popular restaurant.</t>
         </is>
       </c>
     </row>
@@ -9001,7 +8938,7 @@
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>If you're in Monastir and looking for something fun to do, check out Marina Cap Monastir located at Marina Cap Monastir, Monastir. This top-rated destination is perfect for Port de plaisance lovers and offers a range of categories to choose from including Port de plaisance, Hotel de ville, Cafe, Salle de reception, Hotel, Restaurant, Appartement de vacances. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 35.7782689, 10.8322267. For more details, visit their website at http://www.marinamonastir.tn/ or call them at 73 462 305.</t>
+          <t>Marina Cap Monastir is a harbor located in Monastir, Tunisia. This is a 4.5-star rated place that offers various services such as cafes, hotels, restaurants, vacation rentals, and reception halls. Its convenient location offers easy access to markets, and its air-conditioned facilities add to its appeal.</t>
         </is>
       </c>
     </row>
@@ -9104,9 +9041,7 @@
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>If you're in Monastir and looking for a quick bite, check out La reserve located at C100e. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of options to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open from 11:30 am to 11:00 pm, but closed on Sundays. To get there, visit the provided link.</t>
+          <t>"La Reserve" is a fast-food restaurant located in Monastir, Tunisia, offering a variety of dishes at affordable prices. Situated at coordinates (35.7703383, 10.8293184), it is open from 11:30 AM to 11:00 PM daily except Sundays. With a rating of 4.0, customers highly recommend its cleanliness, delicious food, and Caesar salad.</t>
         </is>
       </c>
     </row>
@@ -9209,10 +9144,7 @@
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a top-rated restaurant, check out restaurant Marina The Captain located at cap marina. 
-This must-visit spot is perfect for Restaurant lovers and offers a range of Restaurant, Bar categories to choose from. 
-With a rating of 4.2, it's open during these hours: 12:00-00:00, but closed on lundi. To get there, use these GPS coordinates: 35.7790874, 10.8309024. 
-For more details, call them at 92 555 655.</t>
+          <t>Restaurant Marina The Captain is located in Monastir, Tunisia at the coordinates (35.7790874, 10.8309024). It is a restaurant that offers both food and drinks with a focus on seafood and filet. The restaurant has a 4.2-star rating with 193 reviews. It is open from 12:00-00:00 and closed on Mondays. The restaurant has a featured image that shows a photo of the restaurant's exterior. The restaurant's website and description are not available.</t>
         </is>
       </c>
     </row>
@@ -9317,13 +9249,7 @@
           <t>monastir</t>
         </is>
       </c>
-      <c r="Y86" t="inlineStr">
-        <is>
-          <t>If you're in monastir and looking for a place to dine, check out El Ferik located at QR9V+98R El Ferik, Route de la Courniche, Monastir. 
-This top-rated restaurant is perfect for food lovers and offers a range of dining options to choose from. 
-With a rating of 3.8, it's a must-visit spot. It's open during these hours: 09:00-01:00. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their Facebook page at https://www.facebook.com/Restaurant.El.Ferik/ or call them at 73 462 220.</t>
-        </is>
-      </c>
+      <c r="Y86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -9424,9 +9350,7 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a great place to eat, check out Restaurant La Plage located at QRCR+63F Restaurant La Plage, Monastir. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 11:00-22:00. To get there, use these GPS coordinates: 35.7707133, 10.8401032. For more details, visit their website at https://www.google.com/maps/place/Restaurant+La+Plage/data=!4m7!3m6!1s0x130212d49a87f1d9:0x45e8fb8c9dc6c7b1!8m2!3d35.7705728!4d10.8401771!16s%2Fg%2F11c1m00k2r!19sChIJ2fGHmtQSAhMRscfGnYz76EU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 73 461 124.</t>
+          <t>Restaurant La Plage, located in Monastir (coordinates: 35.7707133, 10.8401032), is a highly rated restaurant with a focus on seafood (as evidenced by the keyword "poisson" appearing frequently in reviews). It's open from 11:00-22:00 daily and has received 33 reviews, with an average rating of 4.0.</t>
         </is>
       </c>
     </row>
@@ -9525,9 +9449,7 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out Plongeoir plage karaia de Monastir lmyd@ located at QRFQ+R4H, Monastir. 
-This top-rated destination is perfect for Attraction touristique lovers and offers a range of Attraction touristique to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their website at https://www.google.com/maps/place/Plongeoir+plage+karaia+de+Monastir+%D8%A7%D9%84%D9%85%D9%8A%D8%AF%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x13026dc2c46fb12f:0xb5b8d7365e11370e!8m2!3d35.7745733!4d10.8378637!16s%2Fg%2F11h51086l8!19sChIJL7FvxMJtAhMRDjcRXjbXuLU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>The Diving Board at Karaia Beach in Monastir is a popular tourist attraction. It offers stunning views of the surrounding area and is a great place to relax and unwind. The Diving Board is located at (35.7692625, 10.819974) and is open 24 hours a day.</t>
         </is>
       </c>
     </row>
@@ -9622,7 +9544,7 @@
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>If you're in Monastir and looking for a top-rated pavillon de plage, head to Plage de Monastir located at QRGP+355 Plage de Monastir, Unnamed Road, Monastir. This must-visit spot has earned a rating of 3.9, making it a popular choice for locals and visitors alike. To get there, use these GPS coordinates: 35.75606, 10.79343. For more details, you can visit their website at https://www.google.com/maps/place/Plage+de+Monastir/data=!4m7!3m6!1s0x13026d63cf170aff:0xdeeebf37685e1d89!8m2!3d35.7751329!4d10.835476!16s%2Fg%2F11hgdnk78x!19sChIJ_woXz2NtAhMRiR1eaDe_7t4?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Plage de Monastir is a beach pavilion located in Monastir, Tunisia, with coordinates (35.75606, 10.79343). It has received a rating of 3.9 out of 5 stars based on 12 reviews.</t>
         </is>
       </c>
     </row>
@@ -9717,7 +9639,7 @@
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>If you're in Monastir and looking for a captivating attraction, head to Port, situated at QRHM+6CG. This top-rated destination boasts a remarkable 4.8 rating and is a must-visit for Attraction touristique enthusiasts. Its GPS coordinates are (35.7692625, 10.819974), ensuring easy navigation. For more details, explore their website at https://www.google.com/maps/place/Port/data=!4m7!3m6!1s0x13026d3af5611a5b:0xe27c62c2f7b1049!8m2!3d35.7780614!4d10.8335627!16s%2Fg%2F11kpdd5mh2!19sChIJWxph9TptAhMRSRB7LyzGJw4?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Port is a popular tourist attraction located in Monastir, Tunisia. It boasts a 4.8-star rating from 12 reviews, showcasing its high regard among visitors. While there is no specific description available, the port likely offers breathtaking views, opportunities for relaxation, and access to local attractions and amenities. Its coordinates are (35.7692625, 10.819974), making it easily accessible for travelers. Whether you seek a tranquil escape or an adventure amidst the bustling city, Port is an excellent destination to consider.</t>
         </is>
       </c>
     </row>
@@ -9812,8 +9734,7 @@
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a top-rated Attraction touristique, check out Marina Port de Monastir plage located at QRHJ+WFX Marina Port de Monastir plage, Monastir. With a rating of 4.0, it's a must-visit spot. 
-To get there, use these GPS coordinates: 35.7591864, 10.8377775. For more details, visit their website at https://www.google.com/maps/place/Marina+Port+de+Monastir+plage/data=!4m7!3m6!1s0x13026dca567e68a9:0xb4e41a42f7b5980e!8m2!3d35.7801928!4d10.8309957!16s%2Fg%2F11t9f05w0d!19sChIJqWh-VsptAhMRDpi190Ia5LQ?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Marina Port de Monastir plage (35.7591864, 10.8377775) is a marina located in Monastir. The marina offers a range of services and amenities to boaters, including a variety of shops, restaurants, and bars. It is also a popular destination for tourists, who can enjoy the beautiful scenery and the many activities that the marina has to offer.</t>
         </is>
       </c>
     </row>
@@ -9908,9 +9829,7 @@
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a fun place to visit, check out Plage de Skanes located at QQHQ+CGX Plage de Skanes, Monastir. 
-This top-rated destination is perfect for Attraction touristique lovers and offers a range of categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.7749, 10.79464. For more details, visit their website at https://www.google.com/maps/place/Plage+de+Skan%C3%A8s/data=!4m7!3m6!1s0x130273a27f80fd3d:0xba704f17a3f6be02!8m2!3d35.7789214!4d10.7895992!16s%2Fg%2F11jzg_t4zg!19sChIJPf2Af6JzAhMRAr72oxdPcLo?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Plage de Skanes is a popular tourist attraction in Monastir, Tunisia. It's a beautiful beach with white sand and clear waters, perfect for swimming, sunbathing, and enjoying the stunning views. The beach is also located near several restaurants, cafes, and shops, making it a great place to relax and enjoy a day out.</t>
         </is>
       </c>
     </row>
@@ -10017,9 +9936,7 @@
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a top-rated hotel, check out Skanes Serail aquapark located at Skanes Serail aquapark, Monastir. 
-This popular destination with a rating of 3.3 offers a range of amenities perfect for Hotel lovers. 
-For more details, visit their website at http://www.hotelserail.com/ or call them at 73 520 241.</t>
+          <t>Skanes Serail Aquapark is a 3.3-stars all-inclusive hotel in Monastir, Tunisia. It is located at the coordinates (35.769481, 10.7671271). The hotel has 1078 reviews and a featured image available at https://lh3.googleusercontent.com/gps-proxy/ALd4DhGpLIbR2361fCJQ2O9XDE8Y-FPx3lcj0h3ewGr_r-nDiqVk7DUCBO0zxKbKehFz5_s8csm7w2Z0vtOO7JQ2qA5rwz6u6rm2ZZgWReckQVVvZiJSea3ecGI5raRYsTDmo2RIM5f9j_2D6RmLubyRYBI7M6v8rJfuWpJ0CPHalsKScsBQe-pxw_Oc=w408-h270-k-no. The hotel offers a variety of amenities, including a private beach, a spa, a tennis court, two swimming pools, and several restaurants.</t>
         </is>
       </c>
     </row>
@@ -10126,7 +10043,10 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out Ribat de Monastir located at QRGM+F6M Ribat de Monastir, Rte de la Falaise, Monastir. This top-rated destination is perfect for Lieu historique lovers and offers a range of Lieu historique, Site historique, Musee and Attraction touristique to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 08:30-17:30, but closed on [] . To get there, use these GPS coordinates: 35.75606, 10.79343. For more details, call them at 42 223 476.</t>
+          <t>Ribat de Monastir is an imposing 8th-century coastal fort located in Monastir, Tunisia. It is one of the best-preserved examples of Islamic architecture in North Africa. Today, the fort houses the Museum of Islamic Art, showcasing a collection of artifacts from the region's rich history.
+The Ribat is strategically situated on a hilltop overlooking the Mediterranean Sea, offering stunning views of the coastline. It is easily accessible from the city center and is a popular destination for both tourists and locals.
+Visitors can explore the fort's various chambers, including its mosque, watchtower, and cistern. They can also admire the intricate carvings and decorations that adorn the building's interior and exterior.
+With its historical significance, architectural beauty, and cultural heritage, Ribat de Monastir is a must-visit destination for anyone interested in Tunisia's rich past.</t>
         </is>
       </c>
     </row>
@@ -10233,7 +10153,7 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out Ribat de Monastir located at QRGM+F6M Ribat de Monastir, Rte de la Falaise, Monastir. This top-rated destination is perfect for Lieu historique lovers and offers a range of Lieu historique, Site historique, Musee, Attraction touristique to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 08:30-17:30, but closed on . To get there, use these GPS coordinates: 35.75606, 10.79343. For more details, visit their website at  or call them at 42 223 476.</t>
+          <t>Located in Monastir (35.75606, 10.79343), Ribat de Monastir is an impressive 8th-century coastal fort that stands as a well-preserved relic of the past. Today, it houses the Museum of Islamic Art, showcasing a captivating collection of artifacts. With its rating of 4.6 based on 2204 reviews, the Ribat attracts numerous visitors who marvel at its captivating architecture and rich history.</t>
         </is>
       </c>
     </row>
@@ -10340,7 +10260,7 @@
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>If you're in Monastir and looking for a historical adventure, make sure to visit Ribat de Monastir. Located at QRGM+F6M Ribat de Monastir, Rte de la Falaise, this top-rated destination is perfect for history buffs. It boasts a rating of 4.6 and houses the Museum of Islamic Art. The fort is open during these hours: 08:30-17:30. To get there, here are the GPS coordinates: 35.75606, 10.79343. For more information, please visit their website.</t>
+          <t>The Ribat de Monastir is a well-preserved 8th-century fort located in Monastir, Tunisia. It now houses the Museum of Islamic Art. The Ribat's strategic location on the Mediterranean coast made it a vital defensive structure for the Muslim conquerors of North Africa. The fort has a distinctive square tower, which is one of the most recognizable landmarks in Tunisia. The Ribat de Monastir is a popular tourist attraction and is considered a UNESCO World Heritage Site.</t>
         </is>
       </c>
     </row>
@@ -10447,7 +10367,7 @@
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a historic place to visit, check out Ribat de Monastir located at QRGM+F6M Ribat de Monastir, Rte de la Falaise, Monastir. This top-rated destination is perfect for history lovers and offers a range of categories to choose from, including historical sites, museums, and tourist attractions. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 08:30-17:30, but closed on []. To get there, use these GPS coordinates: 35.75606, 10.79343.</t>
+          <t>The Ribat de Monastir is a well-preserved 8th-century coastal fort located in Monastir, Tunisia. It is currently home to the Museum of Islamic Art and boasts an impressive collection of Islamic artifacts and artwork. The fort is situated on the shores of the Mediterranean Sea, offering stunning views of the coastline. Visitors can explore its ramparts, towers, and courtyards, providing a glimpse into the architectural wonders of the past. It has received numerous positive reviews, with a rating of 4.6 out of 5 on Google, highlighting its significance as a historical landmark and a must-visit destination for history buffs and art enthusiasts.</t>
         </is>
       </c>
     </row>
@@ -10554,7 +10474,7 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a historical place to visit, check out Ribat de Monastir located at QRGM+F6M Ribat de Monastir, Rte de la Falaise, Monastir. This top-rated destination is perfect for history lovers and offers a range of categories to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 08:30-17:30. To get there, use these GPS coordinates: 35.75606, 10.79343. For more details, call them at 42 223 476.</t>
+          <t>In the heart of Monastir, nestled on the coast, stands the Ribat de Monastir, an imposing 8th-century coastal fortress that has been remarkably preserved. Today, this architectural gem houses the Museum of Islamic Art, inviting visitors to delve into the rich history and culture of the region. With a rating of 4.6 and over 2000 reviews, this historical site is a must-visit destination, offering a unique blend of architectural wonder and cultural significance.</t>
         </is>
       </c>
     </row>
@@ -10649,9 +10569,7 @@
       </c>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out Statue du president de la Republique Tunisienne Habib Bourguiba located at QQFM+FR9 Statue du president de la Republique Tunisienne Habib Bourguiba, Monastir. 
-This top-rated destination is perfect for Attraction touristique lovers and offers a range of categories to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 35.6324186805, 10.898585985759. For more details, visit their website at https://www.google.com/maps/place/Statue+du+pr%C3%A9sident+de+la+R%C3%A9publique+Tunisienne+Habib+Bourguiba/data=!4m7!3m6!1s0x13020d4c41bd632b:0xcb7252b944ae2ea2!8m2!3d35.7736588!4d10.7846166!16s%2Fg%2F11cp5vnrtl!19sChIJK2O9QUwNAhMRoi6uRLlScss?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>The Statue of Habib Bourguiba, located in Monastir, Tunisia, is a popular tourist attraction. The statue commemorates the first president of Tunisia, Habib Bourguiba, and is situated at coordinates (35.6324186805, 10.898585985759). It has received a 4.4 rating based on 27 reviews and is known for its historical significance and symbolic value.</t>
         </is>
       </c>
     </row>
@@ -10758,7 +10676,7 @@
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>If you're in Monastir and looking for a historical site to visit, check out Ribat de Monastir located at QRGM+F6M Ribat de Monastir, Rte de la Falaise. This top-rated destination is perfect for history lovers and offers a range of activities to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 08:30-17:30, but closed on . To get there, use these GPS coordinates: 35.75606, 10.79343. For more details, visit their website or call them at 42 223 476.</t>
+          <t>Ribat de Monastir is a fascinating historical landmark situated in Monastir, Tunisia. Built in the 8th century, this colossal coastal fortress has been remarkably preserved and now houses the Museum of Islamic Art. Explore this unique heritage site, appreciate its architectural grandeur, and immerse yourself in the vibrant history of Monastir.</t>
         </is>
       </c>
     </row>
@@ -10853,9 +10771,7 @@
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out Statue du president de la Republique Tunisienne Habib Bourguiba located at QQFM+FR9 Statue du president de la Republique Tunisienne Habib Bourguiba, Monastir. 
-This top-rated destination is perfect for Attraction touristique lovers and offers a range of categories to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 35.6324186805, 10.898585985759. For more details, visit their website at  or call them at .</t>
+          <t>The Statue du president de la Republique Tunisienne Habib Bourguiba is a popular tourist attraction located in Monastir, Tunisia. It is a statue of Habib Bourguiba, the first president of Tunisia. The statue is located in the city center, near the seafront. It is a popular spot for tourists to take photos and admire the views of the city.</t>
         </is>
       </c>
     </row>
@@ -10962,7 +10878,7 @@
       </c>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out Ribat de Monastir located at QRGM+F6M Ribat de Monastir, Rte de la Falaise, Monastir. This top-rated destination is perfect for history lovers and offers a range of activities to choose from, including historic site, tourist attraction and museum. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 08:30-17:30, but closed on []. To get there, use these GPS coordinates: 35.75606, 10.79343. For more details, call them at 42 223 476.</t>
+          <t>Nestled on the Mediterranean coast, Ribat de Monastir is an 8th-century fortress located at 35.75606, 10.79343. This well-preserved coastal fort is now home to the Museum of Islamic Art, showcasing the rich heritage and culture of the region. With stunning views of the sea and a 4.6-star rating based on over 2200 reviews, Ribat de Monastir offers a unique blend of historical significance and cultural immersion.</t>
         </is>
       </c>
     </row>
@@ -11057,9 +10973,7 @@
       </c>
       <c r="Y103" t="inlineStr">
         <is>
-          <t>If you're in Monastir and exploring for a holy and cultural experience, visit Mosquee de Bourguiba at QRFJ+R86 Mosquee de Bourguiba, Monastir. 
-This top-rated destination is a must-visit for Mosquee lovers and offers a blend of spiritual and architectural wonders. With a rating of 4.5, it's a must-visit spot. 
-To get there, use these GPS coordinates: 35.7746946, 10.8304116.</t>
+          <t>The Mosquée de Bourguiba is a place of worship located in Mosquee de Bourguiba, Monastir, Tunisia. It is a popular tourist attraction and has received positive reviews. The mosque is known for its beautiful architecture and its spiritual significance. It is a great place to visit for those interested in learning more about Islam or simply admiring the beauty of a religious building.</t>
         </is>
       </c>
     </row>
@@ -11158,7 +11072,7 @@
       </c>
       <c r="Y104" t="inlineStr">
         <is>
-          <t>If you're in Monastir and looking for something fun to do, check out Palais Presidentiel de Bourguiba located at QQHM+MMC Palais Presidentiel de Bourguiba. This top-rated destination is perfect for Musee lovers and offers a range of categories to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 09:00-16:45, but closed on Monday. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their website at https://www.google.com/maps/place/Palais+Pr%C3%A9sidentiel+de+Bourguiba/data=!4m7!3m6!1s0x130272b35efcf8a1:0x96e5947ab6f51f78!8m2!3d35.7791806!4d10.7841401!16s%2Fg%2F1269mlfj8!19sChIJofj8XrNyAhMReB_1tnqU5ZY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>The Palais Presidentiel de Bourguiba is a museum located in Monastir, Tunisia, at the coordinates (35.7692625, 10.819974). The museum houses artifacts and exhibits related to the history and life of Habib Bourguiba, the first president of Tunisia. The Palais Presidentiel de Bourguiba is a popular tourist destination, and it is also used for official government functions.</t>
         </is>
       </c>
     </row>
@@ -11253,9 +11167,7 @@
       </c>
       <c r="Y105" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out Statue du president de la Republique Tunisienne Habib Bourguiba located at QQFM+FR9 Statue du president de la Republique Tunisienne Habib Bourguiba, Monastir. 
-This top-rated destination is perfect for Attraction touristique lovers and offers a range of Attraction touristique to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 35.6324186805, 10.898585985759.</t>
+          <t>The Statue du president de la Republique Tunisienne Habib Bourguiba is a popular tourist attraction located in Monastir, Tunisia. It is a statue of the first president of Tunisia, Habib Bourguiba, and is located near the beach. The statue is a popular spot for photos and is a must-see for any visitor to Monastir. It is rated 4.4 out of 5 stars on Google reviews, with many reviewers praising its beauty and historical significance.</t>
         </is>
       </c>
     </row>
@@ -11362,9 +11274,7 @@
       </c>
       <c r="Y106" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out Musee Habib Bourguiba located at Musee Habib Bourguiba, Monastir.
-This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from.
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 09:00-17:00, but closed on lundi. To get there, use these GPS coordinates: 35.6324186805, 10.898585985759. For more details, visit their website at https://www.facebook.com/Mus%25C3%25A9e-Leader-Habib-Bourguiba-1023833361037895/ or call them at 73 529 555.</t>
+          <t>The Habib Bourguiba Museum, a must-see in Monastir, presents the life and achievements of the first President of an independent Tunisia. It is housed in an elegant palace that once served as the President's residence. Located at the heart of Monastir, the museum offers a captivating journey through Tunisia's rich past, shedding light on the legacy of a prominent figure who shaped the nation's destiny.</t>
         </is>
       </c>
     </row>
@@ -11459,7 +11369,7 @@
       </c>
       <c r="Y107" t="inlineStr">
         <is>
-          <t>If you're in Monastir and looking for something fun to do, check out Port located at QRHM+6CG. This top-rated destination is perfect for Attraction touristique lovers. With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their website at https://www.google.com/maps/place/Port/data=!4m7!3m6!1s0x13026d3af5611a5b:0xe27c62c2f7b1049!8m2!3d35.7780614!4d10.8335627!16s%2Fg%2F11kpdd5mh2!19sChIJWxph9TptAhMRSRB7LyzGJw4?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>The Port of Monastir is a captivating tourist attraction known for its stunning views and vibrant atmosphere. Located at the coordinates (35.7692625, 10.819974), it is nestled in the heart of Monastir, Tunisia. With an impressive 4.8 rating, the Port is a must-visit destination for both locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -11554,10 +11464,7 @@
       </c>
       <c r="Y108" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out rbT sydy dhwyb located at QRFJ+WX9 rbT sydy dhwyb, Monastir. 
-This top-rated destination is perfect for Site historique lovers. 
-With a rating of 5.0, it's a must-visit spot. 
-For more details, visit the link below or call the owner at the provided number.</t>
+          <t>The historical site rbT sydy dhwyb is located in Monastir, Tunisia. It has a 5-star rating and is known for its historical significance. Visitors can find more information about the site's history, location, and features on the provided link.</t>
         </is>
       </c>
     </row>
@@ -11652,7 +11559,7 @@
       </c>
       <c r="Y109" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a historical landmark to visit, check out Phare de Monastir located at QRHP+8W Phare de Monastir, Monastir. This top-rated destination is perfect for cultural history lovers and offers a stunning view of the city. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.77799, 10.82617. For more details, visit their website at https://www.google.com/maps/place/Phare+de+Monastir/data=!4m7!3m6!1s0x13026d81767961e7:0xddad71cf83aed3bc!8m2!3d35.7783467!4d10.8372516!16s%2Fg%2F11jzgtky6v!19sChIJ52F5doFtAhMRvNOug89xrd0?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>The Phare de Monastir is a cultural monument located in Monastir, Tunisia, at coordinates (35.77799, 10.82617). Despite limited information available, this lighthouse stands as a prominent landmark and a historical artifact, offering visitors a chance to delve into the cultural heritage of the region.</t>
         </is>
       </c>
     </row>
@@ -11759,9 +11666,7 @@
       </c>
       <c r="Y110" t="inlineStr">
         <is>
-          <t>If you're in Monastir and looking for something fun to do, check out Ribat de Monastir located at QRGM+F6M Ribat de Monastir, Rte de la Falaise, Monastir. 
-This top-rated destination is perfect for history lovers and offers a range of categories to choose from, including historical site, tourist attraction, and museum. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 08:30-17:30. To get there, use these GPS coordinates: 35.75606, 10.79343. Website is unavailable. For more details, you can call them at 42 223 476.</t>
+          <t>Ribat de Monastir, located in Monastir, Tunisia, is an 8th-century fortified monastery with well-preserved architecture. It serves as a museum of Islamic Art, showcasing artifacts from the region's rich history. Its location near the coastline at coordinates (35.75606, 10.79343) provides stunning views of the Mediterranean Sea. The Ribat offers a unique blend of historical significance and cultural exploration, making it a must-visit for history enthusiasts and travelers alike.</t>
         </is>
       </c>
     </row>
@@ -11856,9 +11761,7 @@
       </c>
       <c r="Y111" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out Mosquee de Bourguiba located at QRFJ+R86 Mosquee de Bourguiba, Monastir. 
-This top-rated destination is perfect for Mosquee lovers and offers a range of Mosquee,Attraction touristique to choose from. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 35.7746946, 10.8304116. For more details, visit their website at https://www.google.com/maps/place/Mosqu%C3%A9e+de+Bourguiba/data=!4m7!3m6!1s0x13026d3323cbfef1:0x50633ab6c39cea3e!8m2!3d35.7745369!4d10.8307731!16s%2Fg%2F122l893d!19sChIJ8f7LIzNtAhMRPuqcw7Y6Y1A?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Mosquee de Bourguiba, a notable mosque in Monastir, Tunisia, boasts a 4.5-star rating based on 398 reviews. Located at QRFJ+R86 (latitude: 35.7746946, longitude: 10.8304116), it offers a serene ambiance for worship and is also recognized as a popular tourist attraction.</t>
         </is>
       </c>
     </row>
@@ -11957,9 +11860,7 @@
       </c>
       <c r="Y112" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out Palais Presidentiel de Bourguiba. 
-This top-rated destination is perfect for Musee lovers and offers a range of Musee, Attraction touristique to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 09:00-16:45, but closed on lundi. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their website at https://www.google.com/maps/place/Palais+Pr%C3%A9sidentiel+de+Bourguiba/data=!4m7!3m6!1s0x130272b35efcf8a1:0x96e5947ab6f51f78!8m2!3d35.7791806!4d10.7841401!16s%2Fg%2F1269mlfj8!19sChIJofj8XrNyAhMReB_1tnqU5ZY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>The Palais Presidentiel de Bourguiba is a historical museum showcasing the life and work of Tunisia's first president, Habib Bourguiba. Located in Monastir, Tunisia (35.7692625, 10.819974), it's known for its stunning architecture, featuring marble details and beautiful gardens. Visitors can explore exhibits highlighting Bourguiba's role in the country's independence and modernization, and gain insights into the political and cultural history of Tunisia.</t>
         </is>
       </c>
     </row>
@@ -12066,7 +11967,7 @@
       </c>
       <c r="Y113" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out Palais Des Sciences De Monastir located at QRCM+V2F Palais Des Sciences De Monastir, Monastir. This top-rated destination is perfect for Musee scientifique lovers and offers a range of Musee scientifique to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 08:30-17:30, but closed on samedi, dimanche. To get there, use these GPS coordinates: 35.7720272, 10.8332005. For more details, visit their website at http://www.psm.rnu.tn/ or call them at 73 463 556.</t>
+          <t>The Palais Des Sciences De Monastir is a science museum located in Monastir, Tunisia. It is located at QRCM+V2F Palais Des Sciences De Monastir, Monastir, and its coordinates are (35.7720272, 10.8332005). The museum is dedicated to the promotion of science and technology. It offers a variety of exhibits on topics such as astronomy, physics, chemistry, and biology. The museum also has a planetarium and a conference hall. The Palais Des Sciences De Monastir is open from 08:30 to 17:30 during the weekdays and is closed on Saturdays and Sundays.</t>
         </is>
       </c>
     </row>
@@ -12165,9 +12066,7 @@
       </c>
       <c r="Y114" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out Panneau "I Love Monastir" located at QRGM+R74 Panneau "I Love Monastir", Rte de la Falaise, Monastir. 
-This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their website at https://www.facebook.com/ILoveMonastir</t>
+          <t>**Panneau "I Love Monastir"** is a popular tourist attraction in Monastir, Tunisia. It is a large sign that says "I Love Monastir" in Arabic and French, surrounded by a landscaped garden. The sign is located near the beach, and it offers beautiful views of the Mediterranean Sea. Visitors can enjoy a walk in the garden, take a picture in front of the sign, or simply relax and enjoy the scenery.</t>
         </is>
       </c>
     </row>
@@ -12274,7 +12173,7 @@
       </c>
       <c r="Y115" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out Musee Habib Bourguiba located at Musee Habib Bourguiba, Monastir. This top-rated destination is perfect for Musee lovers. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 09:00-17:00, but closed on lundi. To get there, use these GPS coordinates: 35.6324186805, 10.898585985759. For more details, visit their website at https://www.facebook.com/Mus%25C3%25A9e-Leader-Habib-Bourguiba-1023833361037895/ or call them at 73 529 555.</t>
+          <t>Discover the "Musée Habib Bourguiba", a captivating museum in Monastir. This institution honors the legacy of Tunisia's first president, Habib Bourguiba, showcasing his belongings and providing insights into his life and achievements. Nestled at 35.6324186805 latitude and 10.898585985759 longitude, the museum is easily accessible for visitors. The "Musée Habib Bourguiba" offers opportunities to delve into Tunisian history and culture.</t>
         </is>
       </c>
     </row>
@@ -12377,9 +12276,7 @@
       </c>
       <c r="Y116" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out Musee du Ribat located at QRGM+F6M Musee du Ribat, Rte de la Falaise, Monastir. 
-This top-rated destination is perfect for Musee lovers. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 08:00-19:00. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their website at https://www.tunisiepatrimoine.tn/ar/%25D9%2585%25D8%25B9%25D8%25A7%25D9%2584%25D9%2585/%25D8%25B1%25D8%25A8%25D8%25A7%25D8%25B7-%25D8%25A7%25D9%2584%25D9%2585%25D9%2586%25D8%25B3%25D8%25AA%25D9%258A%25D8%25B1/%25D9%2586%25D8%25B8%25D8%25B1%25D8%25A9-%25D8%25B9%25D8%25A7%25D9%2585%25D8%25A9/</t>
+          <t>Musee du Ribat is a museum located in Monastir, Tunisia, showcasing the history and culture of the region. Its prime location at (35.7692625, 10.819974) makes it easily accessible to visitors. With a 4.8 rating out of 5 and 12 reviews, it has garnered positive feedback from those who have experienced its exhibits.</t>
         </is>
       </c>
     </row>
@@ -12474,7 +12371,7 @@
       </c>
       <c r="Y117" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out Statue Habib Bourguiba nSb lHbyb bwrqyb@ located at QRFM+939 Statue Habib Bourguiba nSb lHbyb bwrqyb@, Unnamed Road, Monastir. This top-rated destination is perfect for Musee lovers. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their website at https://www.google.com/maps/place/Statue+Habib+Bourguiba+%D9%86%D8%B5%D8%A8+%D8%A7%D9%84%D8%AD%D8%A8%D9%8A%D8%A8+%D8%A8%D9%88%D8%B1%D9%82%D9%8A%D8%A8%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x13026decda60ada9:0x2b0b3eb164ba0f52!8m2!3d35.7734121!4d10.8327418!16s%2Fg%2F11j302hvrv!19sChIJqa1g2uxtAhMRUg-6ZLE-Cys?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>The Statue Habib Bourguiba is a prominent landmark located in monastir. Situated at the coordinates (35.7692625, 10.819974), it offers a unique cultural experience to visitors. The statue is a tribute to the first president of Tunisia and serves as a symbol of national pride. With a 4.7 rating, it has attracted positive reviews from visitors who appreciate its historical significance and artistic beauty.</t>
         </is>
       </c>
     </row>
@@ -12573,9 +12470,7 @@
       </c>
       <c r="Y118" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out Palais Presidentiel de Bourguiba at QQHM+MMC Palais Presidentiel de Bourguiba. 
-This top-rated destination is perfect for Musee lovers and also falls into the category of Attraction touristique. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 09:00-16:45, but closed on lundi. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their website at https://www.google.com/maps/place/Palais+Pr%C3%A9sidentiel+de+Bourguiba/data=!4m7!3m6!1s0x130272b35efcf8a1:0x96e5947ab6f51f78!8m2!3d35.7791806!4d10.7841401!16s%2Fg%2F1269mlfj8!19sChIJofj8XrNyAhMReB_1tnqU5ZY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>The Palais Presidentiel de Bourguiba is a museum located in Monastir, Tunisia. It is a popular tourist attraction and has received 277 reviews on Google, with an average rating of 4.2. The museum is known for its historical significance, beautiful architecture, and stunning gardens. The Palais Presidentiel de Bourguiba is a must-see for anyone visiting Monastir.</t>
         </is>
       </c>
     </row>
@@ -12682,9 +12577,7 @@
       </c>
       <c r="Y119" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out Palais Des Sciences De Monastir located at QRCM+V2F Palais Des Sciences De Monastir, Monastir. 
-This top-rated destination is perfect for Musee scientifique lovers and offers a range of Musee scientifique to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 08:30-17:30, but closed on samedi, dimanche. To get there, use these GPS coordinates: 35.7720272, 10.8332005. For more details, visit their website at http://www.psm.rnu.tn/ or call them at 73 463 556.</t>
+          <t>Palais Des Sciences De Monastir is a scientific museum located in Monastir, Tunisia. It is open from 08:30-17:30, and is closed on Saturdays and Sundays. The museum specializes in science, and features exhibits on a variety of scientific fields. It also has a conference room for rent, making it a popular choice for events and meetings. The museum has a rating of 4.4 out of 5 on Google, and has received positive reviews for its informative exhibits and educational programs.</t>
         </is>
       </c>
     </row>
@@ -12783,9 +12676,7 @@
       </c>
       <c r="Y120" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a museum to visit, check out Panneau "I Love Monastir" located at QRGM+R74 Panneau "I Love Monastir", Rte de la Falaise, Monastir. 
-With a rating of 4.5, it's a must-visit spot for museum lovers. To get there, use these GPS coordinates: 35.7692625, 10.819974. 
-For more details, visit their website at https://www.facebook.com/ILoveMonastir or call them at nan.</t>
+          <t>"I Love Monastir” sign is a popular tourist spot located in Monastir, Tunisia. It is a large, colorful sign that features the phrase "I Love Monastir" in both Arabic and French. The sign is located on the Route de la Falaise, a scenic road that offers beautiful views of the Mediterranean Sea. Tourists often stop at the sign to take photos and enjoy the views.</t>
         </is>
       </c>
     </row>
@@ -12892,9 +12783,7 @@
       </c>
       <c r="Y121" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out Musee Habib Bourguiba located at Musee Habib Bourguiba, Monastir. 
-This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 09:00-17:00, but closed on lundis. To get there, use these GPS coordinates: 35.6324186805, 10.898585985759. For more details, visit their website at https://www.facebook.com/Mus%25C3%25A9e-Leader-Habib-Bourguiba-1023833361037895/ or call them at 73 529 555.</t>
+          <t>The "Musee Habib Bourguiba" in Monastir is a museum dedicated to the life and works of Tunisia's first president, Habib Bourguiba. Located at 35.6324186805, 10.898585985759, the museum is known for its 26 reviews and 4.4 rating. It is accessible by phone at 73 529 555 and is open from 09:00-17:00, except on Mondays. The museum's Facebook page provides additional information: https://www.facebook.com/Mus%25C3%25A9e-Leader-Habib-Bourguiba-1023833361037895/. The featured image and review keywords offer insights into the museum's offerings and significance.</t>
         </is>
       </c>
     </row>
@@ -12997,9 +12886,7 @@
       </c>
       <c r="Y122" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a great museum experience, check out Musee du Ribat located at QRGM+F6M Musee du Ribat, Rte de la Falaise, Monastir. 
-This top-rated destination is perfect for history and culture lovers and offers a fascinating glimpse into the past. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 08:00-19:00. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their website at https://www.tunisiepatrimoine.tn/ar/%25D9%2585%25D8%25B9%25D8%25A7%25D9%2584%25D9%2585/%25D8%25B1%25D8%25A8%25D8%25A7%25D8%25B7-%25D8%25A7%25D9%2584%25D9%2585%25D9%2586%25D8%25B3%25D8%25AA%25D9%258A%25D8%25B1/%25D9%2586%25D8%25B8%25D8%25B1%25D8%25A9-%25D8%25B9%25D8%25A7%25D9%2585%25D8%25A9/</t>
+          <t>Located in Monastir, Musee du Ribat is a cultural institution dedicated to showcasing the heritage of the region. The museum's collection features a diverse range of artifacts and exhibits that provide insights into the history, culture, and traditions of the area. Its prime location on Rte de la Falaise offers easy accessibility to visitors from within and outside the city.</t>
         </is>
       </c>
     </row>
@@ -13106,7 +12993,7 @@
       </c>
       <c r="Y123" t="inlineStr">
         <is>
-          <t>If you're in Monastir and looking for something fun to do, check out Ribat de Monastir located at QRGM+F6M Ribat de Monastir, Rte de la Falaise, Monastir. This top-rated destination is perfect for Lieu Historique lovers and offers a range of categories to choose from, including Lieu historique, Site historique, Musee, Attraction touristique. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 08:30-17:30. To get there, use these GPS coordinates: 35.75606, 10.79343. For more details, visit their website at nan or call them at 42 223 476.</t>
+          <t>Ribat de Monastir is a well-preserved coastal fort built in the 8th century. It is a popular tourist attraction and houses the Museum of Islamic Art. The fort is located at (35.75606, 10.79343) in Monastir, Tunisia.</t>
         </is>
       </c>
     </row>
@@ -13205,7 +13092,7 @@
       </c>
       <c r="Y124" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out Palais Presidentiel de Bourguiba located at QQHM+MMC Palais Presidentiel de Bourguiba, Monastir. This top-rated destination is perfect for Musee lovers and offers a range of Musee and Attraction touristique to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 09:00-16:45, but closed on lundi. To get there, use these GPS coordinates: 35.7692625, 10.819974.</t>
+          <t>The Presidential Palace of Bourguiba is a historical museum located in Monastir, Tunisia, at coordinates (35.7692625, 10.819974). The palace is dedicated to the history of Tunisia and showcases exhibits on the life and work of President Habib Bourguiba. Visitors can explore the palace's rooms, admire its architecture, and immerse themselves in the history of the country.</t>
         </is>
       </c>
     </row>
@@ -13312,7 +13199,7 @@
       </c>
       <c r="Y125" t="inlineStr">
         <is>
-          <t>If you're in Monastir and looking for something fun to do, check out Palais Des Sciences De Monastir located at QRCM+V2F Palais Des Sciences De Monastir, Monastir. This top-rated destination is perfect for Musee scientifique lovers. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 08:30-17:30, but closed on samedi, dimanche. To get there, use these GPS coordinates: 35.7720272, 10.8332005. For more details, visit their website at http://www.psm.rnu.tn/ or call them at 73 463 556.</t>
+          <t>The Palais Des Sciences De Monastir is a scientific museum located in Monastir, Tunisia. It offers a variety of exhibits on science and technology, including a planetarium, a science library, and a conference room. The museum is open from 08:30 to 17:30, and is closed on Saturdays and Sundays. The museum's coordinates are (35.7720272, 10.8332005).</t>
         </is>
       </c>
     </row>
@@ -13411,7 +13298,7 @@
       </c>
       <c r="Y126" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out Panneau "I Love Monastir" located at QRGM+R74 Panneau "I Love Monastir", Rte de la Falaise, Monastir. This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their website at https://www.facebook.com/ILoveMonastir.</t>
+          <t>Discover "I Love Monastir" sign, a famous landmark situated in the prominent city of Monastir, with the coordinates of (35.7692625, 10.819974). This well-known spot, categorized as a museum, has received an impressive rating of 4.5 based on 27 reviews.</t>
         </is>
       </c>
     </row>
@@ -13518,7 +13405,7 @@
       </c>
       <c r="Y127" t="inlineStr">
         <is>
-          <t>If you're in Monastir and looking for something fun to do, check out Musee Habib Bourguiba located at Musee Habib Bourguiba, Monastir. This top-rated destination is perfect for Musee lovers. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 09:00-17:00, but closed on Monday. To get there, use these GPS coordinates: 35.6324186805, 10.898585985759. For more details, visit their website at https://www.facebook.com/Mus%25C3%25A9e-Leader-Habib-Bourguiba-1023833361037895/ or call them at 73 529 555.</t>
+          <t>The Musee Habib Bourguiba is a museum located in Monastir, Tunisia. It is named after the first president of Tunisia, Habib Bourguiba. The museum is located in a former palace and houses a collection of artifacts related to Bourguiba's life and presidency. The museum is open to the public from 9am to 5pm, Tuesday through Sunday.</t>
         </is>
       </c>
     </row>
@@ -13621,9 +13508,7 @@
       </c>
       <c r="Y128" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a fun Musee, check out Musee du Ribat located at QRGM+F6M Musee du Ribat, Rte de la Falaise. 
-This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 08:00-19:00, but closed on [closed_on]. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their website at https://www.tunisiepatrimoine.tn/ar/%25D9%2585%25D8%25B9%25D8%25A7%25D9%2584%25D9%2585/%25D8%25B1%25D8%25A8%25D8%25A7%25D8%25B7-%25D8%25A7%25D9%2584%25D9%2585%25D9%2586%25D8%25B3%25D8%25AA%25D9%258A%25D8%25B1/%25D9%2586%25D8%25B8%25D8%25B1%25D8%25A9-%25D8%25B9%25D8%25A7%25D9%2585%25D8%25A9/ or call them at [phone].</t>
+          <t>Nestled in the vibrant coastal city of Monastir, the Musee du Ribat welcomes visitors with a captivating glimpse into the city's rich history. Situated conveniently between Monastir Beach and Stade Mustapha Ben Jannet, the museum is easily accessible, inviting both locals and tourists to delve into the fascinating tales of Monastir's past. Its strategic location near the Ribat of Monastir, a captivating historical fortress, further enhances the museum's allure, making it an unmissable destination for history enthusiasts.</t>
         </is>
       </c>
     </row>
@@ -13722,7 +13607,7 @@
       </c>
       <c r="Y129" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out Plage Sqanes located at Plage Sqanes, Monastir. This top-rated destination is perfect for Plage lovers and offers a range of Plage activities to choose from. With a rating of 3.9, it's a must-visit spot. To get there, use these GPS coordinates: 35.7749, 10.79464. For more details, visit their website at https://www.google.com/maps/place/Plage+Sqanes/data=!4m7!3m6!1s0x130272aa2d06c039:0xb3e765d89d94559b!8m2!3d35.7799282!4d10.7982422!16s%2Fg%2F11b6_zvths!19sChIJOcAGLapyAhMRm1WUndhl57M?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Plage Sqanes is a sandy beach in Monastir, Tunisia, ideal for swimming. It is located next to a pedestrian walkway lined with shops and is also close to a discotheque. The beach has received positive reviews from visitors, who praise its cleanliness and beauty. It is rated 3.9 out of 5 stars on Google Maps.</t>
         </is>
       </c>
     </row>
@@ -13821,7 +13706,7 @@
       </c>
       <c r="Y130" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out Plage Sqanes located at Plage Sqanes, Monastir. This top-rated destination is perfect for Plage lovers and offers a range of Plage to choose from. With a rating of 3.9, it's a must-visit spot.</t>
+          <t>Plage Sqanes, a sandy cove located in Monastir (35.7749, 10.79464), offers an ideal swimming spot with a nearby pedestrian walkway lined with shops and a discothèque.</t>
         </is>
       </c>
     </row>
@@ -13928,9 +13813,7 @@
       </c>
       <c r="Y131" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a great historical landmark, check out Ribat de Monastir located at QRGM+F6M Ribat de Monastir, Rte de la Falaise, Monastir. 
-This top-rated destination is perfect for history buffs and offers a range of categories to choose from, including Lieu historique, Site historique, Musee, and Attraction touristique. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 08:30-17:30, but closed on . To get there, use these GPS coordinates: 35.75606, 10.79343. For more details, visit their website at nan or call them at 42 223 476.</t>
+          <t>The Ribat of Monastir, a well-preserved 8th-century coastal fort, stands on the coordinates (35.75606, 10.79343) in the city of Monastir, Tunisia. Today, it houses the Museum of Islamic Art and offers guided tours, allowing visitors to explore its historical significance and admire its architectural beauty.</t>
         </is>
       </c>
     </row>
@@ -14025,11 +13908,7 @@
       </c>
       <c r="Y132" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out Mosquee de Bourguiba located at QRFJ+R86 Mosquee de Bourguiba, Monastir. 
-This top-rated destination is perfect for Mosquee lovers and offers a range of Attraction touristique to choose from. 
-With a rating of 4.5, it's a must-visit spot. 
-To get there, use these GPS coordinates: 35.7746946, 10.8304116. 
-For more details, visit their website at https://www.google.com/maps/place/Mosqu%C3%A9e+de+Bourguiba/data=!4m7!3m6!1s0x13026d3323cbfef1:0x50633ab6c39cea3e!8m2!3d35.7745369!4d10.8307731!16s%2Fg%2F122l893d!19sChIJ8f7LIzNtAhMRPuqcw7Y6Y1A?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>The Mosquee de Bourguiba is a popular tourist attraction in Monastir, Tunisia. It is a beautiful mosque with a rich history and architecture. The mosque is located at QRFJ+R86 Mosquee de Bourguiba, Monastir and its coordinates are (35.7746946, 10.8304116). The mosque is open daily and offers guided tours for visitors. It is a must-see for anyone visiting Monastir.</t>
         </is>
       </c>
     </row>
@@ -14132,9 +14011,8 @@
       </c>
       <c r="Y133" t="inlineStr">
         <is>
-          <t>If you're in Monastir and looking for a fun day out, check out Marina Cap Monastir located at Marina Cap Monastir, Monastir. 
-This top-rated destination is perfect for Port de Plaisance lovers and offers a range of categories to choose from, including Port de Plaisance, Hotel de ville, Cafe, and more. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 35.7782689, 10.8322267. For more details, visit their website at http://www.marinamonastir.tn/ or call them at 73 462 305.</t>
+          <t>The Marina Cap Monastir is a port in monastir (Tunisia) at the coordinates (35.7782689, 10.8322267).
+It has 296 reviews with an average rating of 4.5 and is known for its cafes, appartements, and reasonable prices.</t>
         </is>
       </c>
     </row>
@@ -14237,8 +14115,7 @@
       </c>
       <c r="Y134" t="inlineStr">
         <is>
-          <t>If you're in Monastir and looking for a top-rated cafe, check out Le Bistrot + located at QRCC+9GP Le Bistrot +, Monastir. 
-This highly-rated destination has a rating of 4.5 and is perfect for cafe lovers. It offers a range of options to choose from. It's open during these hours: 07:00-00:00, but closed on Wednesdays. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their website at https://www.google.com/maps/place/Le+Bistrot+%2B/data=!4m7!3m6!1s0x130213d5f6902e0d:0xf497a29b0d11f1be!8m2!3d35.7708537!4d10.8213632!16s%2Fg%2F11rz9kngd5!19sChIJDS6Q9tUTAhMRvvERDZuil_Q?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 99 175 002.</t>
+          <t>Le Bistrot + is a cafe located in Monastir, Tunisia, offering a variety of food and drinks with a focus on cheesecakes. It's rated 4.5 out of 5 based on 75 reviews and is open from 07:00 to 00:00 every day except Wednesdays. It's located at QRCC+9GP Le Bistrot +, Monastir and its phone number is 99 175 002.</t>
         </is>
       </c>
     </row>
@@ -14345,7 +14222,7 @@
       </c>
       <c r="Y135" t="inlineStr">
         <is>
-          <t>In the heart of monastir, Dar Benti offers a serene retreat for travelers seeking a blend of comfort and tradition. This top-rated guest house boasts an impressive 4.9 rating, making it a must-visit destination for those seeking a peaceful getaway. Nestled at Dar Benti, Beb El Gharbi- Avenue Mahmoud Bourguiba Monastir, 5000, Dar Benti provides guests with access to a range of amenities, including an inviting outdoor pool, a relaxing hammam, and a delectable breakfast to start their day. For more information, visit their website at http://www.darbenti.com/ or call them at 25 020 036.</t>
+          <t>Dar Benti is a refined guest house situated at (35.773203449521, 10.828038937757) in Monastir, Tunisia. It features comfortable accommodations, an outdoor swimming pool, and a hammam. Guests can indulge in a delectable breakfast each morning and connect to Wi-Fi. Dar Benti's strategic location allows for easy exploration of the city's attractions.</t>
         </is>
       </c>
     </row>
@@ -14444,9 +14321,7 @@
       </c>
       <c r="Y136" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out Monastir Medina located at QRFH+876 Monastir Medina, Rue de l'Independance, Monastir. 
-This top-rated destination is perfect for Centre commercial enthusiasts and offers a variety of categories to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 08:00-20:00. For more details, visit their website: https://www.google.com/maps/place/Monastir+Medina/data=!4m7!3m6!1s0x130213629d571f13:0x6890565b669179a3!8m2!3d35.773293!4d10.8281397!16s%2Fg%2F11gsmkrzdk!19sChIJEx9XnWITAhMRo3mRZltWkGg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>The Monastir Medina is a shopping center located in the city of Monastir, Tunisia. It offers a wide range of stores, restaurants, and services, and is a popular destination for both locals and tourists. The Medina is located in the heart of the city, and is easily accessible by public transportation. It is open from 8am to 8pm, and is closed on Sundays.</t>
         </is>
       </c>
     </row>
@@ -14549,9 +14424,7 @@
       </c>
       <c r="Y137" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for clothing, check out Gyzel Tunisie located at QRCF+C62 Gyzel Tunisie, Av. du combattant supreme. 
-This top-rated destination is perfect for clothing lovers and offers a range of Magasin de vetements, Service d'e-commerce to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 08:30-17:00, but closed on dimanche. To get there, use these GPS coordinates: 35.770827984422, 10.822935226419. For more details, visit their link: https://www.google.com/maps/place/Gyzel+Tunisie/data=!4m7!3m6!1s0x13021306e5267051:0xdce3256762654c1!8m2!3d35.7710046!4d10.8230054!16s%2Fg%2F11g4bfw8cw!19sChIJUXAm5QYTAhMRwVQmdlYyzg0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 29 707 399.</t>
+          <t>Discover Gyzel Tunisie (proprietaire), a top-rated clothing store in Monastir with a 4.3-star rating. Located at QRCF+C62 Gyzel Tunisie, Av. du combattant supreme, this store offers a wide range of clothing items. It also has an online presence with an e-commerce service. Gyzel Tunisie is open from 8:30 AM to 5:00 PM during the weekdays, and remains closed on Sundays. It's easily accessible, with coordinates (35.770827984422, 10.822935226419) and a featured image available. For more information or to make an online purchase, visit their website or contact them at 29 707 399.</t>
         </is>
       </c>
     </row>
@@ -14646,7 +14519,7 @@
       </c>
       <c r="Y138" t="inlineStr">
         <is>
-          <t>If you're in Monastir and looking for a health and beauty shop, check out Fleur des Champs located at QRCC+M4F, Fleur des Champs, Unnamed Road, Monastir. This top-rated destination is perfect for health and beauty lovers and offers a range of categories to choose from. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, call them at 22 861 094.</t>
+          <t>**Fleur des Champs** is a health and beauty boutique located in Monastir, Tunisia. Situated at coordinates (35.7692625, 10.819974), it boasts a 4.6-star rating based on 5 reviews. The boutique offers a wide range of health and beauty products and services.</t>
         </is>
       </c>
     </row>
@@ -14745,10 +14618,7 @@
       </c>
       <c r="Y139" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a great Cafe, check out Spadacoffee Monastir located at QRFC+73F Spadacoffee Monastir, Monastir. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. 
-To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their link at https://www.google.com/maps/place/Spadacoffee+Monastir/data=!4m7!3m6!1s0x130213fb5125ab63:0xe5804bcbbd547826!8m2!3d35.7730457!4d10.8195648!16s%2Fg%2F11t2x9vq1z!19sChIJY6slUfsTAhMRJnhUvctLgOU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 52 882 220.</t>
+          <t>Spadacoffee Monastir, located at QRFC+73F, boasts a perfect 5.0 rating and falls under the 'Cafe' category. Its central location in Monastir, Tunisia (coordinates: 35.7692625, 10.819974) makes it easily accessible.</t>
         </is>
       </c>
     </row>
@@ -14855,7 +14725,7 @@
       </c>
       <c r="Y140" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a great place to stay, check out One Resort Aqua Park &amp; Spa located at Route Touristique, Monastir 5029. This top-rated 4.1-star Hotel is perfect for relaxation lovers and offers a range of amenities to choose from. With 1618 reviews, it's a must-visit spot. For more details, visit their website at https://oneaqua.tn/ or call them at 73 521 750.</t>
+          <t>The One Resort Aqua Park &amp; Spa is a sprawling all-inclusive hotel complex located in monastir, Tunisia. The hotel is home to 4311 guest rooms and suites, making it one of the largest hotel complexes in the area. The hotel offers a wide range of amenities, including four swimming pools, a spa, and several restaurants. The hotel is also located just a short walk from the beach.</t>
         </is>
       </c>
     </row>
@@ -14958,7 +14828,7 @@
       </c>
       <c r="Y141" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a top-rated place for Complexe hotelier lovers, check out Hilton Skanes Monastir Beach Resort located at Hilton Skanes Monastir Beach Resort, Zone Touristique Dkhila, Monastir 5000. This destination offers a range of categories to choose from, including Complexe hotelier and Institut de spa et bien-etre. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.74613, 10.8240878.</t>
+          <t>Hilton Skanes Monastir Beach Resort is a 4-star hotel located in the heart of Monastir, Tunisia. The hotel offers a variety of amenities, including a private beach, multiple swimming pools, a spa, and a fitness center. The hotel is also home to a variety of restaurants and bars, as well as a nightclub. The hotel is within walking distance of the city center, which offers a variety of shops, restaurants, and historical sites.</t>
         </is>
       </c>
     </row>
@@ -15061,7 +14931,7 @@
       </c>
       <c r="Y142" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a great place to stay, check out Hotel Magic life Family Skanes located at QP7X+P37 Hotel Magic life Family Skanes, Monastir. This top-rated hotel is perfect for hotel lovers and offers a range of amenities to choose from. With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 35.7749, 10.79464. For more details, visit their website at http://skanes.magichotelsandresorts.com/ or call them at 73 520 350.</t>
+          <t>Hotel Magic life Family Skanes is a 4.2-rated hotel located in Monastir, Tunisia. It offers a water park, tennis courts, and an all-inclusive package. The hotel has 113 reviews and is known for its swimming pool, beach access, tennis courts, animation, all-inclusive package, and comfortable rooms. It is located at QP7X+P37 Hotel Magic life Family Skanes, Monastir, Tunisia.</t>
         </is>
       </c>
     </row>
@@ -15156,7 +15026,7 @@
       </c>
       <c r="Y143" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a top-rated Boutique de sante et beaute, check out Fleur des Champs located at QRCC+M4F Fleur des Champs, Unnamed Road, Monastir. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, call them at 22 861 094.</t>
+          <t>Fleur des Champs, rated 4.6 stars, is a health and beauty store located in Monastir, Tunisia (coordinates: 35.7692625, 10.819974). It offers a wide range of products and services to meet your beauty and wellness needs.</t>
         </is>
       </c>
     </row>
@@ -15255,7 +15125,7 @@
       </c>
       <c r="Y144" t="inlineStr">
         <is>
-          <t>If you're in Monastir and looking for a top-rated destination for Discotheque lovers, head to The Circle Night Club located at QMJW+QMQ The Circle Night Club, Monastir. This must-visit spot boasts a rating of 4.0 and offers a memorable experience for those seeking entertainment. To get there, use these GPS coordinates: 35.7692625, 10.819974. For inquiries, call them at 28 225 349.</t>
+          <t>The Circle Night Club is a 4-star discotheque located in Monastir, Tunisia. It offers a lively atmosphere with pulsating music and a dance floor that stays packed all night long. The club features a full bar with an extensive drink menu, and it often hosts special events and themed parties. With its convenient location and welcoming ambiance, The Circle Night Club is a popular destination for locals and tourists alike. Its geographical coordinates are (35.7692625, 10.819974).</t>
         </is>
       </c>
     </row>
@@ -15358,7 +15228,7 @@
       </c>
       <c r="Y145" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a lively nightlife experience, check out Palm's Disco located at 5000 Rue John Fitzgerald Kennedy. This highly-rated bar is a local favorite, with a 4.4-star rating and rave reviews. It's open from 7 pm to 4 am daily, so you can dance the night away. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their website or call them at 50 825 109.</t>
+          <t>Palm's Disco is a popular 4.4-rated bar located at 5000 Rue John Fitzgerald Kennedy in Monastir, Tunisia. It is open daily from 7:00 PM to 4:00 AM and offers a lively atmosphere with music, dancing, and drinks. The bar's featured image showcases a vibrant and spacious interior with comfortable seating and a dance floor. Palm's Disco is a great place to hang out with friends or meet new people.</t>
         </is>
       </c>
     </row>
@@ -15457,9 +15327,7 @@
       </c>
       <c r="Y146" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out Societe Sultan located at QRHM+C7P Societe Sultan, Marina Cap, Monastir. 
-This top-rated Discotheque destination is perfect for Discotheque lovers. 
-With a rating of 4.5, it's a must-visit spot. You can call them at 99 039 903 for more details.</t>
+          <t>Societe Sultan is a 4.5-star discotheque located in Marina Cap, Monastir, Tunisia. With an address of QRHM+C7P, the establishment is renowned for its energetic atmosphere and captivating ambiance. Situated at coordinates (35.7692625, 10.819974), the discotheque offers guests an unforgettable nightlife experience, making it a popular destination for those seeking entertainment and excitement in Monastir.</t>
         </is>
       </c>
     </row>
@@ -15558,7 +15426,7 @@
       </c>
       <c r="Y147" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out The Circle Night Club located at QMJW+QMQ The Circle Night Club, Monastir. This top-rated destination is perfect for Discotheque lovers. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, call them at 28 225 349.</t>
+          <t>The Circle Night Club is located in Monastir at the coordinates (35.7692625, 10.819974). It offers a 4.0 stars rated discotheque service to its customers.</t>
         </is>
       </c>
     </row>
@@ -15653,7 +15521,7 @@
       </c>
       <c r="Y148" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a great bar lounge, check out La Rocca Lounge located at QR76+PG3 La Rocca Lounge, Les palmiers, Monastir. This top-rated destination is perfect for Bar lounge lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their link or call them at 27 526 465.</t>
+          <t>La Rocca Lounge is a 4-star rated bar lounge located in Monastir, Tunisia at the coordinates (35.7692625, 10.819974). It is owned by La Rocca Lounge. It offers a variety of services and has 2 reviews on Google Maps.</t>
         </is>
       </c>
     </row>
@@ -15756,7 +15624,7 @@
       </c>
       <c r="Y149" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a top-rated bar to enjoy some drinks, consider visiting Palm's Disco located at Palm's Disco, 5000 Rue John Fitzgerald Kennedy. With a rating of 4.4, it's a great spot for bar lovers. You can visit during their hours of operation: 19:00-04:00. For any queries, feel free to reach out to 50 825 109.</t>
+          <t>Palm's Disco is a bar located in Monastir, Tunisia. It is a popular spot for locals and tourists alike, offering a lively atmosphere and a wide selection of drinks. The bar is situated at 5000 Rue John Fitzgerald Kennedy and is open from 7pm to 4am daily. It is closed on major holidays.</t>
         </is>
       </c>
     </row>
@@ -15855,7 +15723,7 @@
       </c>
       <c r="Y150" t="inlineStr">
         <is>
-          <t>If you're in Monastir and looking for a fun night out, check out Societe Sultan, located at QRHM+C7P Societe Sultan, Marina Cap. This top-rated destination is perfect for Discotheque lovers. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, call them at 99 039 903.</t>
+          <t>Societe Sultan is a nightclub in Monastir, Tunisia, known for its lively atmosphere. Enjoy prime nightlife entertainment in the heart of the city. Immerse yourself in the vibrant fusion of music, dance, and social interaction. The club provides a captivating experience sure to leave a lasting impression.</t>
         </is>
       </c>
     </row>
@@ -15954,9 +15822,7 @@
       </c>
       <c r="Y151" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a night out, check out The Circle Night Club located at QMJW+QMQ The Circle Night Club, Monastir. 
-This top-rated Discotheque is perfect for all you party lovers and has a rating of 4.0, making it a must-visit spot. 
-To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their website at https://www.google.com/maps/place/The+Circle+Night+Club/data=!4m7!3m6!1s0x13020b790e5d408b:0xa78bbce2e6578a6!8m2!3d35.7819586!4d10.696729!16s%2Fg%2F11gl15qflf!19sChIJi0BdDnkLAhMRpnhlLs67eAo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 28 225 349.</t>
+          <t>The Circle Night Club is located in Monastir, Tunisia, at coordinates (35.7692625, 10.819974). It is a popular nightlife destination, with a 4.0 rating from 2 reviews. The club offers a variety of music genres, including disco, house, and techno. It also has a full bar and a dance floor.</t>
         </is>
       </c>
     </row>
@@ -16055,9 +15921,7 @@
       </c>
       <c r="Y152" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out The Circle Night Club located at QMJW+QMQ The Circle Night Club, Monastir. 
-This top-rated destination is perfect for Discotheque lovers and offers Discotheque. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their website at https://www.google.com/maps/place/The+Circle+Night+Club/data=!4m7!3m6!1s0x13020b790e5d408b:0xa78bbce2e6578a6!8m2!3d35.7819586!4d10.696729!16s%2Fg%2F11gl15qflf!19sChIJi0BdDnkLAhMRpnhlLs67eAo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 28 225 349.</t>
+          <t>The Circle Night Club, located in Monastir, is a popular discotheque known for its lively atmosphere and exciting nightlife scene. With a rating of 4.0, this club has received positive reviews from past visitors.</t>
         </is>
       </c>
     </row>
@@ -16156,11 +16020,7 @@
       </c>
       <c r="Y153" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out The Circle Night Club located at QMJW+QMQ Monastir. 
-This top-rated destination is perfect for Discotheque lovers and offers a range of categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. 
-To get there, use these GPS coordinates: 35.769, 10.82. For more details, 
-visit their website or call them at 28 225 349.</t>
+          <t>The Circle Night Club is located in Monastir, Tunisia, and has a 4-star rating. Its main category is Discotheque, and it is known for its lively atmosphere and great music. It is a popular spot for locals and tourists alike, and it offers a variety of drinks and snacks. The club is open until late, and it is a great place to dance and have fun.</t>
         </is>
       </c>
     </row>
@@ -16263,10 +16123,7 @@
       </c>
       <c r="Y154" t="inlineStr">
         <is>
-          <t>If you are in Monastir and looking for a place to dine, go to Oriento, which is located at QRHM+727, Monastir. 
-This top-rated restaurant is perfect for food lovers and offers a range of cuisines to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 11:00-00:00. 
-To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their website or call them at 92 705 705.</t>
+          <t>Oriento is a restaurant located in Monastir, Tunisia. It serves a variety of dishes, including kebabs. The restaurant is known for its affordable prices and friendly service. It has received positive reviews from customers, who praise its food and atmosphere. The restaurant is open from 11:00 AM to 12:00 AM.</t>
         </is>
       </c>
     </row>
@@ -16369,7 +16226,7 @@
       </c>
       <c r="Y155" t="inlineStr">
         <is>
-          <t>If you're in Monastir and looking for a great cafe, check out Cafe Brigade located at Cafe Brigade, 5020 Monastir, 5020. This top-rated destination is perfect for cafe lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 05:00-23:00. To get there, use these GPS coordinates: 35.6265962, 10.7056977.</t>
+          <t>**Cafe Brigade** is a highly-rated cafe located in Monastir, Tunisia, at coordinates (35.6265962, 10.7056977). It is known for providing a cozy atmosphere with a focus on serving delicious coffee and beverages. With a rating of 5.0 out of 21 reviews, it is a popular spot for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -16472,10 +16329,7 @@
       </c>
       <c r="Y156" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out MixMax located at MixMax, 1 C100e, Monastir 5000. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of categories to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 11:30-00:00, but closed on dimanche. 
-To get there, use these GPS coordinates: 35.74613, 10.8240878. For more details, visit their link at https://www.google.com/maps/place/MixMax/data=!4m7!3m6!1s0x130212b436ce54f7:0x36c9ac0065fa6de1!8m2!3d35.7699399!4d10.819227!16s%2Fg%2F11cmv1wmwz!19sChIJ91TONrQSAhMR4W36ZQCsyTY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 73 504 050.</t>
+          <t>MixMax, a popular fast food joint in Monastir, Tunisia, is known for its delicious, budget-friendly fare. Located at the coordinates (35.74613, 10.8240878), it boasts high customer satisfaction, reflected in its 4.2 rating based on 362 reviews. Open from 11:30 AM to midnight every day except Sundays, MixMax offers a convenient dining experience. Its menu features a variety of dishes, including its signature farcie baguettes and chawarma, all prepared with an emphasis on cleanliness. Customers can expect a welcoming atmosphere and the opportunity to satisfy their cravings without breaking the bank.</t>
         </is>
       </c>
     </row>
@@ -16578,9 +16432,7 @@
       </c>
       <c r="Y157" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out La reserve located at La reserve, C100e, Monastir. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 11:30-23:00, but closed on dimanche. To get there, use these GPS coordinates: 35.7703383, 10.8293184. For more details, visit their website at https://www.google.com/maps/place/La+r%C3%A9serve/data=!4m7!3m6!1s0x130212afde97ce9b:0x1a7e96c7f6dd543e!8m2!3d35.7659093!4d10.8109774!16s%2Fg%2F11c5g87x2b!19sChIJm86X3q8SAhMRPlTd9seWfho?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 73 502 300.</t>
+          <t>La Reserve is a popular fast food restaurant in Monastir, Tunisia, located at (35.7703383, 10.8293184). It offers a wide range of dishes at affordable prices, including the famous Caesar salad. The restaurant is known for its cleanliness and friendly staff. With a rating of 4.0 out of 5 based on 215 reviews, La Reserve is a great choice for a quick meal or a casual dining experience.</t>
         </is>
       </c>
     </row>
@@ -16683,9 +16535,7 @@
       </c>
       <c r="Y158" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out BIZZ'ART located at QRCH+4R6 BIZZ'ART, Monastir. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-00:00. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their website at not specified or call them at 53 065 000.</t>
+          <t>BIZZ'ART is a restaurant located in monastir, Tunisia. It's a popular spot for families, offering a wide range of dishes including pizzas, tacos, and gorgonzola. The restaurant has an average rating of 4.0 stars out of 185 reviews. The restaurant is highly rated for its variety of dishes and its family-friendly atmosphere. It is conveniently located in QRCH+4R6 BIZZ'ART, Monastir and is open from 8:00am to midnight.</t>
         </is>
       </c>
     </row>
@@ -16792,7 +16642,7 @@
       </c>
       <c r="Y159" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a great meal, check out Mamma Chami located at QR8J+C2R Mamma Chami, Monastir. This top-rated restaurant is perfect for Restaurant and Restauration rapide lovers. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 11:00-00:00, but closed on dimanche. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their website at https://www.facebook.com/mamachemi.restaurantlibanais/ or call them at 73 448 174.</t>
+          <t>Mamma Chami is a restaurant located in Monastir, Tunisia. It serves Lebanese cuisine, specializing in sandwiches, tacos, and traditional platters. The restaurant offers a comfortable and welcoming atmosphere, and its menu includes a variety of options to cater to different tastes and preferences.</t>
         </is>
       </c>
     </row>
@@ -16899,7 +16749,7 @@
       </c>
       <c r="Y160" t="inlineStr">
         <is>
-          <t>If you're in Monastir and looking for a top-notch pizza experience, check out Soprano, located at Soprano, Monastir. This highly-rated pizzeria is a must-visit spot for pizza lovers, with a rating of 4.3. It's open from 11:00-00:00 during the week, but closed on Sundays. For more information, visit their website at http://www.facebook.com/Soprano.Monastir/ or call them at 73 466 646.</t>
+          <t>Soprano is a pizzeria located in Monastir, Tunisia, near the coordinates (35.7692625, 10.819974). It has a rating of 4.3 stars based on 173 reviews and is open from 11:00 to 00:00 every day except Sunday. The pizzeria offers a variety of pizzas at reasonable prices and is known for its delicious food and friendly service.</t>
         </is>
       </c>
     </row>
@@ -17002,11 +16852,16 @@
       </c>
       <c r="Y161" t="inlineStr">
         <is>
-          <t>If you're in Monastir and looking for a quick bite to eat, head to Tenor located at QR8H+33C. 
-This top-rated destination is perfect for fast food lovers and offers a range of quick food options to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open from 10:00 to 23:30, but closed on Sunday. 
-To get there, use the GPS coordinates: 35.7692625, 10.819974. 
-For more details, call them at 73 466 200.</t>
+          <t>**Tenor**
+**Cuisine:** Fast food
+**Location:** Tenor, Monastir (35.7692625, 10.819974)
+**Rating:** 4.0 (based on 136 reviews)
+**Highlights:**
+* Quick and convenient dining option
+* Situated in the heart of Monastir
+* Features a varied menu of fast food items
+* Open from 10:00 am to 11:30 pm daily (closed on Mondays)
+* Contact: 73 466 200</t>
         </is>
       </c>
     </row>
@@ -17109,7 +16964,7 @@
       </c>
       <c r="Y162" t="inlineStr">
         <is>
-          <t>If you're in Monastir and looking for a delicious meal, head to Resto My Cocoon, located at QRFJ+VJX Resto My Cocoon, Monastir. This top-rated restaurant is perfect for food lovers and offers a range of dishes to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their website or call them at 53 196 196.</t>
+          <t>Resto My Cocoon is a restaurant located in Monastir. It offers a variety of dishes, including pizzas, grillades, and escalopes. The restaurant is open daily from 7 AM to midnight. It is located at the coordinates (35.7692625, 10.819974).</t>
         </is>
       </c>
     </row>
@@ -17216,7 +17071,7 @@
       </c>
       <c r="Y163" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a top-rated dining spot, check out La Cocina located at La Cocina, Bab El Kram ndeg6, Monastir 5000. This destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 08:30-19:00, but closed on dimanche. To get there, use these GPS coordinates: 35.74613, 10.8240878. For more details, visit their website at https://m.facebook.com/Elkoojina/ or call them at 54 060 609.</t>
+          <t>La Cocina, a highly rated restaurant in Monastir, Tunisia, offers traditional Tunisian cuisine at affordable prices. Located at Bab El Kram Ndeg6, it boasts a cozy atmosphere, friendly staff, and a menu featuring a wide variety of dishes to satisfy all tastes. With its convenient location and extended hours (8:30 AM - 7:00 PM), La Cocina is the perfect spot for a casual meal or a special occasion.</t>
         </is>
       </c>
     </row>
@@ -17319,12 +17174,7 @@
       </c>
       <c r="Y164" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out Oriento located at QRHM+727 Oriento.
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from.
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 11:00-00:00, but closed on [].
-To get there, use these GPS coordinates: 35.7692625, 10.819974.
-For more details, visit their website at https://www.google.com/maps/place/Oriento/data=!4m7!3m6!1s0x13026d99a0441499:0x7af4a0b5b8545e67!8m2!3d35.7783791!4d10.8324069!16s%2Fg%2F11sj7zgt9b!19sChIJmRREoJltAhMRZ15UuLWg9Ho?authuser=0&amp;hl=fr&amp;rclk=1
- or call them at 92 705 705.</t>
+          <t>Oriento is a highly-rated restaurant with a 4.0 rating based on 62 reviews. It is known for its kebabs and offers a variety of dishes at affordable prices. Located in Monastir at QRHM+727, its coordinates are (35.7692625, 10.819974). It is typically open from 11:00 AM to midnight, and is closed on the following days:</t>
         </is>
       </c>
     </row>
@@ -17427,7 +17277,7 @@
       </c>
       <c r="Y165" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a top-rated dining experience, check out Restaurant Bel Air Central located at QRHJ+JV7. This 4.3-rated spot is perfect for Restaurant lovers and offers a range of categories to choose from. It's open during these hours: 11:00-00:00. To get there, use these GPS coordinates: 50.6081952, 3.3867358. For more details, visit their website or call them at 73 461 597.</t>
+          <t>Restaurant Bel Air Central is a 4.3-rated restaurant located in Monastir (50.6081952, 3.3867358). It is open from 11 AM to midnight and offers a wide range of dishes at affordable prices. The restaurant has received positive reviews for its food, service, and ambiance.</t>
         </is>
       </c>
     </row>
@@ -17530,7 +17380,7 @@
       </c>
       <c r="Y166" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a great Restaurant experience, check out Restaurant La Plage located at QRCR+63F Restaurant La Plage, Monastir. This highly-rated destination offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 11:00-22:00. To get there, use these GPS coordinates: 35.7707133, 10.8401032. For more details, visit their website at https://www.google.com/maps/place/Restaurant+La+Plage/data=!4m7!3m6!1s0x130212d49a87f1d9:0x45e8fb8c9dc6c7b1!8m2!3d35.7705728!4d10.8401771!16s%2Fg%2F11c1m00k2r!19sChIJ2fGHmtQSAhMRscfGnYz76EU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 73 461 124.</t>
+          <t>Restaurant La Plage is a restaurant located in Monastir, Tunisia. It offers a variety of dishes, including seafood, and has a rating of 4.0 out of 5 on Google Maps. The restaurant is open from 11:00 AM to 10:00 PM, and is closed on Mondays. It is located at 35.7707133, 10.8401032.</t>
         </is>
       </c>
     </row>
@@ -17633,7 +17483,7 @@
       </c>
       <c r="Y167" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a quick bite, head to White Chapati on White Chapati, Monastir 5000. With a 4.4-star rating, it's a top-rated destination for fast food lovers. Open from 11:30 am to 11:30 pm daily, it offers a range of delicious options to choose from. For more details, call them at 54 199 715 or visit their website at .</t>
+          <t>White Chapati is a fast food restaurant located in Monastir, Tunisia. It offers a variety of dishes, including burgers, sandwiches, and pizzas. The restaurant is open from 11:30am to 11:30pm, seven days a week. It is located at 35.74613, 10.8240878.</t>
         </is>
       </c>
     </row>
@@ -17736,7 +17586,7 @@
       </c>
       <c r="Y168" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out The Blues Cafe-Resto located at QR9Q+Q49 The Blues Cafe-Resto, Monastir 5000. This top-rated destination is perfect for Cafe et restaurant de grillades lovers and offers a range of Cafe et restaurant de grillades to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 35.74613, 10.8240878. For more details, call them at 31 168 168.</t>
+          <t>The Blues Cafe-Resto is a popular cafe and grill located in Monastir, Tunisia. It is known for its delicious food, relaxed atmosphere, and friendly staff. The cafe is open from 7am to midnight, and offers a wide variety of dishes, including breakfast, lunch, dinner, and snacks. It is also a great place to watch live music and sports events. The Blues Cafe-Resto is located at QR9Q+Q49, Monastir 5000, and can be contacted by phone at 31 168 168.</t>
         </is>
       </c>
     </row>
@@ -17839,7 +17689,7 @@
       </c>
       <c r="Y169" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out mT`m dr zmn Restaurant dar zmen located at QRFJ+5CR mT`m dr zmn Restaurant dar zmen, Monastir. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.7, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D8%B7%D8%B9%D9%85+%D8%AF%D8%A7%D8%B1+%D8%B2%D9%85%D8%A7%D9%86+Restaurant+dar+zmen%E2%80%AD/data=!4m7!3m6!1s0x1302137c62f63ee9:0x794cf101692ba460!8m2!3d35.7729882!4d10.8310309!16s%2Fg%2F11tjzc2563!19sChIJ6T72YnwTAhMRYKQraQHxTHk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 20 181 878.</t>
+          <t>mT`m dr zmn Restaurant dar zmen is a 4.7-rated restaurant located in Monastir, Tunisia. It offers a variety of dishes, and is open 24 hours a day. The restaurant is located at QRFJ+5CR, Monastir, Tunisia, and can be contacted at 20 181 878.</t>
         </is>
       </c>
     </row>
@@ -17942,7 +17792,7 @@
       </c>
       <c r="Y170" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a great place to eat, check out Cheesy food located at Rue kairouan. This top-rated destination is perfect for Restauration rapide lovers. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 11:30-00:00, but closed on lundi. To get there, use these GPS coordinates: 35.774284545243, 10.825650414034. For more details, visit their website.</t>
+          <t>Cheesy food is a fast-food restaurant located in Monastir, Tunisia, offering a variety of cheesy dishes. The restaurant is open from 11:30am to midnight, and is closed on Mondays. The restaurant has a 4.7-star rating on Google, and has received 12 reviews. The featured image of the restaurant is a photo of a cheeseburger and fries. The restaurant's website and description are not available at this time.</t>
         </is>
       </c>
     </row>
@@ -18045,7 +17895,7 @@
       </c>
       <c r="Y171" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a top-notch restaurant, check out El Hajj located at El Hajj, L' Independence, Monastir. This highly-rated spot boasts a rating of 4.8, making it a must-visit destination for food enthusiasts. Open from 05:30-21:30 daily, El Hajj offers a delectable range of culinary delights to satisfy your cravings. To get there, simply use the GPS coordinates: 35.774047889937, 10.830499936295. For more information, you can reach them at 22 587 473.</t>
+          <t>El Hajj is a highly rated restaurant in Monastir, Tunisia, open from 5:30 AM to 9:30 PM. With a 4.8-star rating from 12 reviews, El Hajj is a popular dining destination with helpful staff and friendly owners. It's located at 35.774048, 10.8305 in Monastir.</t>
         </is>
       </c>
     </row>
@@ -18144,7 +17994,7 @@
       </c>
       <c r="Y172" t="inlineStr">
         <is>
-          <t>If you're in Monastir and looking for a great dining experience, check out Mister Food located at QRF8+578 Mister Food, a cote de mosquee al Tawba, Monastir. This top-rated restaurant is open from 11:00 AM to 11:00 PM. With a rating of 4.1, it's a must-visit spot for food lovers. To get there, use these GPS coordinates: 35.7692625, 10.819974.</t>
+          <t>Mister Food is a restaurant located in Monastir, a city in the Sahel region of Tunisia. The restaurant is known for its delicious food and friendly service. It is also a great place to relax and enjoy a meal with friends and family. The restaurant is open from 11:00-23:00 and is closed on Sundays.</t>
         </is>
       </c>
     </row>
@@ -18247,7 +18097,7 @@
       </c>
       <c r="Y173" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out For Family Food located at QRGG+QGV For Family Food, Unnamed Road, Monastir. This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: not specified, but closed on . To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their website at https://www.facebook.com/kidsfoodmonastir/ or call them at 54 432 634.</t>
+          <t>For Family Food is a highly-rated restaurant located at For Family Food, Unnamed Road, Monastir (35.7692625, 10.819974). It specializes in providing a wholesome and delectable dining experience for families. For Family Food has received 6 reviews and maintains an impressive rating of 4.7, indicating its commitment to customer satisfaction. They are reachable at 54 432 634.</t>
         </is>
       </c>
     </row>
@@ -18350,7 +18200,7 @@
       </c>
       <c r="Y174" t="inlineStr">
         <is>
-          <t>If you're in Monastir and looking for a delectable dining experience, head over to El Molino, located at QRJ7+J62 El Molino. This highly-rated restaurant has a remarkable rating of 4.2, making it a must-visit spot for food enthusiasts. El Molino specializes in Restaurant and offers a variety of delicious options to satisfy your cravings. Open daily from 07:00-00:00, it's the perfect place to enjoy a meal any time. For more information, visit their website or call 97 440 530.</t>
+          <t>El Molino is a restaurant located in Monastir, Tunisia. It offers a variety of dishes and has a rating of 4.2 out of 5 on Google Maps. It is open from 07:00 to 00:00 and is closed on Mondays. The restaurant's main category is Restaurant and it is located at the coordinates (35.7692625, 10.819974).</t>
         </is>
       </c>
     </row>
@@ -18453,7 +18303,7 @@
       </c>
       <c r="Y175" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a top-notch Restaurant, check out Chez Chro located at QR7Q+HRX Chez Chro, Monastir. This highly-rated destination is perfect for Restaurant lovers and boasts a 5.0 rating. It's open during these hours: 11:00-22:00 but closed on . To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their website or call them at 50 182 000.</t>
+          <t>Chez Chro, located in the heart of Monastir at (35.7692625, 10.819974), is a highly-rated restaurant known for its exceptional cuisine. Open daily from 11:00 to 22:00, Chez Chro offers a delectable menu that has garnered rave reviews from diners. With a focus on providing a delightful dining experience, Chez Chro is the perfect destination for those seeking a memorable meal in a cozy and welcoming atmosphere.</t>
         </is>
       </c>
     </row>
@@ -18552,7 +18402,7 @@
       </c>
       <c r="Y176" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a delicious meal, head to Momy's kitchen-kwjyn@ mmy at Rue mes salah essayedi essoueni Monastir, 5000. This top-rated restaurant offers a cozy ambiance and a delectable menu. With a rating of 5.0, it's a must-visit spot. It's open from 08:00 to 18:00 during the weekdays, but closed on Sundays.</t>
+          <t>Momy's kitchen is a restaurant located in Monastir, Tunisia, offering a wide range of cuisines. It is situated at the coordinates (35.74613, 10.8240878) and is open from 08:00-18:00 on weekdays, and is closed on Sundays. It has an average rating of 5.0 based on 1 review.</t>
         </is>
       </c>
     </row>
@@ -18659,9 +18509,7 @@
       </c>
       <c r="Y177" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out Dar Mamie located at rue Ibn el Jazzar Monastir, 5000. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-18:00, but closed on dimanche. To get there, use these GPS coordinates: 35.693298349948, 10.788408022838. For more details, visit their website at https://m.facebook.com/Dar-Mamie-110954423986715/ or call them at 98 195 100.</t>
+          <t>Dar Mamie is a highly-rated restaurant located in Monastir, Tunisia. It is owned by Dar Mamie (proprietaire). The restaurant offers a variety of dishes and is open from 08:00 AM to 06:00 PM every day except Sundays. Dar Mamie is located at 35.693298349948, 10.788408022838 and can be contacted at 00216 98 195 100.</t>
         </is>
       </c>
     </row>
@@ -18764,7 +18612,7 @@
       </c>
       <c r="Y178" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for some delicious fast food, check out La reserve located at C100e. This top-rated destination is perfect for fast food lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 11:30-23:00, but closed on Sundays. To get there, use these GPS coordinates: 35.7703383, 10.8293184. For more details, visit their website or call them at 73 502 300.</t>
+          <t>La Réserve is a fast food restaurant located in Monastir, Tunisia. The restaurant is open from 11:30 AM to 11:00 PM from Monday to Saturday and is closed on Sundays. With a rating of 4.0 out of 5 based on 215 reviews, La Réserve is a popular dining spot among locals and tourists alike. The restaurant offers a variety of dishes, including salads, sandwiches, and platters, at affordable prices. The most popular dishes include the Caesar salad, the chicken sandwich, and the mixed platter. Customers have praised La Réserve for its tasty food, reasonable prices, and friendly service.</t>
         </is>
       </c>
     </row>
@@ -18867,9 +18715,7 @@
       </c>
       <c r="Y179" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out BIZZ'ART located at QRCH+4R6, Monastir. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-00:00, but closed on []. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their website at  or call them at 53 065 000.</t>
+          <t>BIZZ'ART is a restaurant located in Monastir, Tunisia. It offers a variety of dishes, including pizzas, tacos, and pasta. It is located at the coordinates (35.7692625, 10.819974).</t>
         </is>
       </c>
     </row>
@@ -18976,9 +18822,7 @@
       </c>
       <c r="Y180" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a great Pizzeria, check out Soprano located at Soprano, Monastir. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 11:00-00:00, but closed on dimanche. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their website at http://www.facebook.com/Soprano.Monastir/ or call them at 73 466 646.</t>
+          <t>Soprano, a pizzeria located in Monastir at (35.7692625, 10.819974), is renowned for its delicious pizzas. With a rating of 4.3 and 173 reviews, Soprano offers a warm and welcoming ambiance and exceptional service. They are open from 11:00 AM to 00:00 AM, except on Sundays. Their menu boasts a variety of pizzas to cater to different tastes. Whether you're a local or a tourist, Soprano is a must-visit for an unforgettable dining experience.</t>
         </is>
       </c>
     </row>
@@ -19081,7 +18925,8 @@
       </c>
       <c r="Y181" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out Tenor located at QR8H+33C Tenor, Monastir. This top-rated destination is perfect for Restauration rapide lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 10:00-23:30, but closed on []. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their website at or call them at 73 466 200.</t>
+          <t>**Tenor, Monastir**
+Tenor is a fast food restaurant located in Monastir, Tunisia, offering a variety of dishes. It is situated at coordinates (35.7692625, 10.819974) and is easily accessible. Tenor has received a 4.0 rating based on 136 reviews, indicating its popularity among customers.</t>
         </is>
       </c>
     </row>
@@ -19188,7 +19033,7 @@
       </c>
       <c r="Y182" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a top-rated Restaurant, check out La Cocina located at La Cocina, Bab El Kram ndeg6, Monastir 5000. This highly-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 08:30-19:00, but closed on dimanche. To get there, use these GPS coordinates: 35.74613, 10.8240878. For more details, visit their website at https://m.facebook.com/Elkoojina/ or call them at 54 060 609.</t>
+          <t>La Cocina is a restaurant located in Monastir, Tunisia (lon: 10.8240878, lat: 35.74613). With a rating of 4.6 based on 70 reviews, it is known for its Tunisian cuisine at affordable prices. You can visit their website https://m.facebook.com/Elkoojina/ or call them at 54 060 609. They are open from 08:30 to 19:00 every day, except on Sundays.</t>
         </is>
       </c>
     </row>
@@ -19291,11 +19136,7 @@
       </c>
       <c r="Y183" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a great place to eat, check out Oriento, located at QRHM+727 Oriento. 
-This top-rated restaurant is perfect for Restaurant lovers and has a rating of 4.0. 
-It's open from 11:00-00:00. 
-To get there, use these GPS coordinates: 35.7692625, 10.819974. 
-For more details, visit their website or call them at 92 705 705.</t>
+          <t>Oriento is a restaurant located in Monastir, Tunisia, offering a variety of dishes. It is open from 11:00 am to midnight and has received 62 reviews with an average rating of 4.0. The restaurant's main category is Restaurant and its subcategories include Kebab. It is situated at the coordinates (35.7692625, 10.819974).</t>
         </is>
       </c>
     </row>
@@ -19398,9 +19239,7 @@
       </c>
       <c r="Y184" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out White Chapati located at White Chapati, Monastir 5000. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 11:30-23:30. To get there, use these GPS coordinates: 35.74613, 10.8240878. For more details, visit their website or call them at 54 199 715.</t>
+          <t>White Chapati is a fast-food restaurant located on White Chapati, Monastir 5000. Situated at (35.74613, 10.8240878), the restaurant is open from 11:30 am to 11:30 pm. Rated 4.4, this popular eatery has garnered 22 reviews but lacks a website and description.</t>
         </is>
       </c>
     </row>
@@ -19503,7 +19342,7 @@
       </c>
       <c r="Y185" t="inlineStr">
         <is>
-          <t>If you're in Monastir and looking for a great dining experience, check out Skanes Palm located at QP5P+78Q Skanes Palm. This top-rated restaurant is perfect for food lovers and offers a range of dishes to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 10:30-01:30 but is closed on unspecified days. To get there, use these GPS coordinates: 35.7749, 10.79464. For more details, visit their website or call them at 97 888 884.</t>
+          <t>Skanes Palm is a 4.5-star rated restaurant located in Monastir, Tunisia. It has been reviewed 21 times and offers a wide range of dishes. The restaurant is open from 10:30 AM to 1:30 AM and is closed on . It is located at the coordinates (35.7749, 10.79464).</t>
         </is>
       </c>
     </row>
@@ -19602,10 +19441,7 @@
       </c>
       <c r="Y186" t="inlineStr">
         <is>
-          <t>If you're in Monastir and looking for a great place to eat, check out Sesame located at QRG8+73X Sesame. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 11:30-23:00. 
-To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their website at https://www.google.com/maps/place/Sesame/data=!4m7!3m6!1s0x13026d4cc145ffab:0x2f8aa106cd6559bc!8m2!3d35.775736!4d10.8152329!16s%2Fg%2F11g698wk38!19sChIJq_9FwUxtAhMRvFllzQahii8?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Sesame is a restaurant located in Monastir, Tunisia. It offers a variety of dishes and has received positive reviews from customers, with an average rating of 4.1 out of 5. The restaurant is open from 11:30 AM to 11:00 PM and is located at the coordinates (35.7692625, 10.819974).</t>
         </is>
       </c>
     </row>
@@ -19708,9 +19544,7 @@
       </c>
       <c r="Y187" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out The Blues Cafe-Resto located at QR9Q+Q49 The Blues Cafe-Resto, Monastir 5000. 
-This top-rated destination is perfect for Cafe et restaurant de grillades lovers and offers a range of Cafe et restaurant de grillades to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 07:00-00:00, but closed on . To get there, use these GPS coordinates: 35.74613, 10.8240878. For more details, visit their website at  or call them at 31 168 168.</t>
+          <t>The Blues Cafe-Resto is a cafe and steakhouse located in Monastir, Tunisia. It is open from 7:00 AM to midnight, and offers a variety of food and drinks. The cafe has a rating of 4.4 out of 5 stars on Google, and is owned by The Blues Cafe-Resto (proprietaire). The cafe is located at QR9Q+Q49 Monastir 5000, and its coordinates are (35.74613, 10.8240878).</t>
         </is>
       </c>
     </row>
@@ -19813,9 +19647,7 @@
       </c>
       <c r="Y188" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out Light food located at Light food, nhj Gr@ jwn 1955, Monastir 5000. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-14:00, but closed on Dimanche. To get there, use these GPS coordinates: 35.74613, 10.8240878. For more details, call them at 53 499 652.</t>
+          <t>Light food is a fast-food restaurant located in Monastir. Its coordinates are (35.74613, 10.8240878) and its rating is 4.0. It is open from 08:00 to 14:00 and closed on Sundays.</t>
         </is>
       </c>
     </row>
@@ -19918,9 +19750,7 @@
       </c>
       <c r="Y189" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a great Restaurant, check out El Molino located at QRJ7+J62, El Molino, Monastir. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their website at https://www.google.com/maps/place/El+Molino/data=!4m7!3m6!1s0x13026d006e25bf61:0xf6bbf5dd834e4294!8m2!3d35.7815125!4d10.8130156!16s%2Fg%2F11vl_glhfw!19sChIJYb8lbgBtAhMRlEJOg931u_Y?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 97 440 530.</t>
+          <t>El Molino is a renowned restaurant in Monastir, Tunisia, boasting a 4.2-star rating based on 5 reviews. It is located at the coordinates (35.7692625, 10.819974), in the heart of the city. El Molino specializes in serving delectable cuisine, offering a delightful culinary experience to its patrons.</t>
         </is>
       </c>
     </row>
@@ -20023,9 +19853,7 @@
       </c>
       <c r="Y190" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a top-rated restaurant, check out L'Astrance located at QP5J+9C7 L'Astrance, Monastir. 
-This top-rated restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-00:00, but closed on []. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their website at  or call them at 58 622 555.</t>
+          <t>L'Astrance is a 5-star restaurant located in Monastir, Tunisia. With 3 reviews, it's a popular spot for those looking for a great dining experience. It features a weekday timing of 07:00-00:00 and is owned by L'Astrance (proprietaire).</t>
         </is>
       </c>
     </row>
@@ -20128,7 +19956,7 @@
       </c>
       <c r="Y191" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a great Restaurant, check out Restaurant chouchen located at QR4H+4JX Restaurant chouchen, Monastir. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 07:00-23:00, but closed on []. To get there, use these GPS coordinates: 50.6081952, 3.3867358. For more details, visit their website or call them at 97 369 361.</t>
+          <t>Restaurant chouchen is a highly rated restaurant located in Monastir, Tunisia. It offers a variety of dishes in a cozy atmosphere. The restaurant is open from 7:00 AM to 11:00 PM, seven days a week. It is easily accessible, with coordinates (50.6081952, 3.3867358) and can be found at QR4H+4JX Monastir.</t>
         </is>
       </c>
     </row>
@@ -20227,7 +20055,7 @@
       </c>
       <c r="Y192" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a great Restaurant, check out Momy's kitchen-kwjyn@ mmy located at Rue mes salah essayedi essoueni Monastir, 5000. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-18:00, but closed on dimanche. To get there, use these GPS coordinates: 35.74613, 10.8240878. For more details, visit their website at https://www.google.com/maps/place/Momy%27s+kitchen-%D9%83%D9%88%D8%AC%D9%8A%D9%86%D8%A9+%D9%85%D8%A7%D9%85%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x1302132b09940eff:0xdeca2532ac3a915f!8m2!3d35.7660244!4d10.8139578!16s%2Fg%2F11ry78sgcs!19sChIJ_w6UCSsTAhMRX5E6rDIlyt4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 622 382.</t>
+          <t>Momy's Kitchen is a restaurant located in Monastir, Tunisia. It offers a variety of dishes and has a rating of 5.0 out of 5 stars on Google Maps. The restaurant is located at the coordinates (35.74613, 10.8240878) and is open from 08:00 to 18:00 every day except Sunday.</t>
         </is>
       </c>
     </row>
@@ -20334,9 +20162,7 @@
       </c>
       <c r="Y193" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out Dar Mamie located at rue Ibn el Jazzar Monastir, 5000.
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-18:00, but closed on dimanche. To get there, use these GPS coordinates: 35.693298349948, 10.788408022838. For more details, visit their website at https://m.facebook.com/Dar-Mamie-110954423986715/ or call them at 98 195 100.</t>
+          <t>Located in Monastir, Tunisia, "Dar Mamie" is a restaurant with a 5-star rating. It is open from 8:00 AM to 6:00 PM during the week but closed on Sundays. You can reach them by phone at 98 195 100 or visit their website at https://m.facebook.com/Dar-Mamie-110954423986715/.</t>
         </is>
       </c>
     </row>
@@ -20431,7 +20257,7 @@
       </c>
       <c r="Y194" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a reliable taxi service, consider Station Louage Monastir-Jammel-Ksar Hellal located at QRCG+59V Station Louage Monastir-Jammel-Ksar Hellal, Monastir. This 3.3-rated destination is perfect for those seeking transportation services. For more details, visit their website at https://www.google.com/maps/place/Station+Louage+Monastir-Jammel-Ksar+Hellal/data=!4m7!3m6!1s0x130212cbafacedb7:0x5fcce0563d5d05f4!8m2!3d35.7704824!4d10.8259314!16s%2Fg%2F1tfdh53f!19sChIJt-2sr8sSAhMR9AVdPVbgzF8?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Station Louage Monastir-Jammel-Ksar Hellal is a taxi station located in Monastir, Tunisia. It offers transportation services to and from the cities of Monastir, Jammel, and Ksar Hellal. The station is conveniently located at QRCG+59V Station Louage Monastir-Jammel-Ksar Hellal, Monastir, near the city center.</t>
         </is>
       </c>
     </row>
@@ -20530,7 +20356,7 @@
       </c>
       <c r="Y195" t="inlineStr">
         <is>
-          <t>In Monastir, Station STS Monastir is an excellent transportation company located at QRFG+786 Station STS Monastir. This well-known establishment received a 2.9 rating and provides bus and coach transportation services. To contact them, call 31 384 050 or visit their website. For GPS navigation, use coordinates (35.7692625, 10.819974).</t>
+          <t>Station STS Monastir is a bus and coach transport company located in Monastir, Tunisia. The station offers a variety of bus services, including local and regional bus routes, as well as express services to major cities in Tunisia. The station is located at coordinates 35.7692625, 10.819974, and is easily accessible by public transportation or by car.</t>
         </is>
       </c>
     </row>
@@ -20621,7 +20447,7 @@
       </c>
       <c r="Y196" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a Station de pesage, check out Station Bembla Monastir 2 located at PQ2X+JG3 Station Bembla Monastir 2, Bembla and Manarah. This top-rated destination is perfect for Station de pesage lovers and offers a range of Station de pesage to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.7, 10.8. For more details, visit their website at https://www.google.com/maps/place/Station+Bembla+Monastir+2/data=!4m7!3m6!1s0x13020df7ec50a2b3:0x6a5742efb450abd3!8m2!3d35.7015072!4d10.7987984!16s%2Fg%2F11f3jkgkpk!19sChIJs6JQ7PcNAhMR06tQtO9CV2o?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Station Bembla Monastir 2 is a weighing station located in Bembla and Manarah, Tunisia, at the coordinates (35.7, 10.8). It is a weighing station that offers its services to vehicles.</t>
         </is>
       </c>
     </row>
@@ -20716,9 +20542,7 @@
       </c>
       <c r="Y197" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out Station autobus located at QP6W+7FV Station autobus, Monastir. 
-This top-rated destination is perfect for Compagnie d'autobus lovers and offers a range of Compagnie d'autobus to choose from. 
-With a rating of 4.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Station+autobus/data=!4m7!3m6!1s0x13020d0f684940e9:0x583327e00853b729!8m2!3d35.7607373!4d10.7461682!16s%2Fg%2F11jnft8gzv!19sChIJ6UBJaA8NAhMRKbdTCOAnM1g?authuser=0&amp;hl=fr&amp;rclk=1 or call them at the provided phone number.</t>
+          <t>The Station autobus is a bus company located in Monastir, Tunisia. It is situated at the coordinates (35.7692625, 10.819974) and offers bus transportation services.</t>
         </is>
       </c>
     </row>
@@ -20817,7 +20641,7 @@
       </c>
       <c r="Y198" t="inlineStr">
         <is>
-          <t>If you're in Monastir, consider visiting Station STS Monastir located at QRFG+786 Station STS Monastir. It's a top-rated company under the Societe de transport en bus et autocar category. With a 2.9 rating, it's a must-visit spot. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their website or call them at 31 384 050.</t>
+          <t>**Station STS Monastir** is a transportation company located in monastir, Tunisia. The company offers bus and coach services to various destinations. Station STS Monastir has a 2.9 rating on Google and is open 24 hours a day, 7 days a week. The company is headquartered at QRFG+786 Station STS Monastir, Monastir, and can be reached by phone at 31 384 050.</t>
         </is>
       </c>
     </row>
@@ -20912,7 +20736,7 @@
       </c>
       <c r="Y199" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a Service de transport, check out Monastir Airport Station located at QQ73+3R7 Monastir Airport Station, Monastir. This top-rated destination is perfect for Service de transport lovers and offers a range of categories to choose from. With a rating of 3.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.7692625, 10.819974.</t>
+          <t>Located in Monastir, Tunisia (35.7692625, 10.819974), Monastir Airport Station offers transportation services. With a 3.0-star rating based on 3 reviews, the station provides a convenient way to access and depart the airport.</t>
         </is>
       </c>
     </row>
@@ -21007,7 +20831,7 @@
       </c>
       <c r="Y200" t="inlineStr">
         <is>
-          <t>For all your transportation needs in Monastir, head to Gare Ferroviaire Habib-Bourguiba de Monastir - SNCFT located at QR76+PG3. This highly rated destination received a 4.0 rating and offers a range of transportation services. For more details, visit their website at https://www.google.com/maps/place/Gare+Ferroviaire+Habib-Bourguiba+de+Monastir+-+SNCFT/data=!4m7!3m6!1s0x13021386852f1f79:0xf79c1e320e34ce76!8m2!3d35.7642624!4d10.8112969!16s%2Fg%2F11v4j3pg9v!19sChIJeR8vhYYTAhMRds40DjIenPc?authuser=0&amp;hl=fr&amp;rclk=1 or call them.</t>
+          <t>Gare Ferroviaire Habib-Bourguiba de Monastir - SNCFT is a train station located in Monastir, Tunisia. It is a major transportation hub for the city and region, offering passenger and freight services. The station is situated at the coordinates (35.7692625, 10.819974) and is conveniently accessible from various parts of the city.</t>
         </is>
       </c>
     </row>
@@ -21102,7 +20926,7 @@
       </c>
       <c r="Y201" t="inlineStr">
         <is>
-          <t>If you're in Monastir and in search of a reliable transport option, consider Station autobus located at QQ62+RWM. This top-rated bus company offers a convenient and efficient way to travel. With a rating of 3.0, it's a popular choice among locals and visitors alike. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their website at https://www.google.com/maps/place/Station+autobus/data=!4m7!3m6!1s0x13020d6cc747aff1:0x47daecab4240d5a1!8m2!3d35.7620786!4d10.7523007!16s%2Fg%2F11jnktty59!19sChIJ8a9Hx2wNAhMRodVAQqvs2kc?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Located in Monastir at coordinates (35.7692625, 10.819974), Station Autobus is a bus company offering transportation services. Although it has received a 3.0 rating based on 2 reviews, detailed information about its website, workday timings, contact details, and other amenities is currently unavailable.</t>
         </is>
       </c>
     </row>
@@ -21197,7 +21021,7 @@
       </c>
       <c r="Y202" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out Station autobus located at QMFQ+7MP Station autobus, Monastir. This top-rated destination is perfect for Compagnie d'autobus lovers. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 35.7692625, 10.819974.</t>
+          <t>**Station autobus** is a bus station located in Monastir, Tunisia, at the coordinates (35.7692625, 10.819974). It offers bus services to various destinations and is rated 4.5 stars by its patrons.</t>
         </is>
       </c>
     </row>
@@ -21292,9 +21116,7 @@
       </c>
       <c r="Y203" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a Station de taxis, check out Station louage Sahline-Monastir located at QP26+JPX Station louage Sahline-Monastir, Sahline. 
-This top-rated destination offers a range of Station de taxis to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.75166, 10.71109. For more details, visit their website at https://www.google.com/maps/place/Station+louage+Sahline-Monastir/data=!4m7!3m6!1s0x13020dbf90c93067:0x5148a3725261939b!8m2!3d35.7516248!4d10.7118553!16s%2Fg%2F11jmwrs6jy!19sChIJZzDJkL8NAhMRm5NhUnKjSFE?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Station louage Sahline-Monastir is a taxi station located at QP26+JPX in Sahline, Monastir. It offers taxi services. Its coordinates are (35.75166, 10.71109).</t>
         </is>
       </c>
     </row>
@@ -21389,7 +21211,8 @@
       </c>
       <c r="Y204" t="inlineStr">
         <is>
-          <t>If you're in monastir, Station autobus is a top-rated bus company located at QQ97+5W6 Station autobus, Lac de Monastir, Sahline. It has a rating of 3.0, making it a must-visit spot. While we don't have their operating hours or contact information, you can visit their website or use the GPS coordinates (35.75166, 10.71109) to get there.</t>
+          <t>Calling all travelers!
+Discover the "Station Autobus", conveniently located in Lac de Monastir, Sahline. Coordinates: (35.75166, 10.71109). We offer reliable and comfortable bus transportation services, making your journey seamless. Our team is committed to providing a safe and enjoyable travel experience for all. Contact us today to book your next adventure!</t>
         </is>
       </c>
     </row>
@@ -21484,7 +21307,7 @@
       </c>
       <c r="Y205" t="inlineStr">
         <is>
-          <t>If you're in monastir, Station autobus is a top-rated Compagnie d'autobus destination. Located at QP6W+7FV Station autobus, Monastir, it's a must-visit spot with a rating of 4.0. For more details, visit their website at https://www.google.com/maps/place/Station+autobus/data=!4m7!3m6!1s0x13020d0f684940e9:0x583327e00853b729!8m2!3d35.7607373!4d10.7461682!16s%2Fg%2F11jnft8gzv!19sChIJ6UBJaA8NAhMRKbdTCOAnM1g?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Station autobus is a bus company located in Monastir, Tunisia, offering bus services. It is situated at QP6W+7FV, with coordinates (35.7692625, 10.819974).</t>
         </is>
       </c>
     </row>
@@ -21579,7 +21402,7 @@
       </c>
       <c r="Y206" t="inlineStr">
         <is>
-          <t>If you're in Monastir, don't miss Monastir, the top-rated train station in the area. Located at Monastir, this must-visit spot has a rating of 3.9 and offers a range of categories including Train Station. To get there, use these GPS coordinates: 35.7692625, 10.819974.</t>
+          <t>Monastir is a train station located at the coordinates (35.7692625, 10.819974) in the city of Monastir. It has been reviewed 70 times and has a rating of 3.9.</t>
         </is>
       </c>
     </row>
@@ -21686,7 +21509,7 @@
       </c>
       <c r="Y207" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a place to get train tickets, check out Gare Ferroviaire Habib-Bourguiba de Monastir - SNCFT located at QRCG+9J7 Gare Ferroviaire Habib-Bourguiba de Monastir - SNCFT, Monastir. This top-rated ticket office is perfect for train enthusiasts and offers a range of services to choose from. With a rating of 3.6, it's a must-visit spot. It's open during these hours: 05:00-22:00. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their website at https://www.sncft.com.tn/ or call them at 73 460 755.</t>
+          <t>Gare Ferroviaire Habib-Bourguiba de Monastir is a train station located in Monastir, Tunisia. It offers train services to various destinations in the country. The station is open from 5:00 AM to 10:00 PM daily and is closed on public holidays. The station is located at the following coordinates: 35.7692625, 10.819974.</t>
         </is>
       </c>
     </row>
@@ -21781,9 +21604,7 @@
       </c>
       <c r="Y208" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a Station de taxis, check out Station Louage Monastir-Jammel-Ksar Hellal located at QRCG+59V Station Louage Monastir-Jammel-Ksar Hellal, Monastir. 
-This top-rated destination is perfect for Station de taxis enthusiasts and offers a range of categories to choose from. 
-With a rating of 3.3, it's a must-visit spot. To get there, use these GPS coordinates: 35.6447353, 10.8880694.</t>
+          <t>Station Louage Monastir-Jammel-Ksar Hellal is a taxi station located at coordinates (35.6447353, 10.8880694) in Monastir. With a rating of 3.3, this taxi station offers various services to meet your transportation needs. Its exact address is QRCG+59V Station Louage Monastir-Jammel-Ksar Hellal, Monastir.</t>
         </is>
       </c>
     </row>
@@ -21882,7 +21703,7 @@
       </c>
       <c r="Y209" t="inlineStr">
         <is>
-          <t>If you're in Monastir and looking for a quick stop, check out Station Shell TSA Skanes-Monastir located at QP5G+XRV Station Shell TSA Skanes-Monastir, Dkhila. This top-rated destination is perfect for Station-service lovers and offers a range of services to choose from. With a rating of 4.2, it's a must-visit spot. It's open 24 hours a day, 7 days a week. To get there, use these GPS coordinates: 35.7749, 10.79464.</t>
+          <t>Station Shell TSA Skanes-Monastir is a gas station located in monastir, Tunisia (coordinates: 35.7749, 10.79464). It is open 24 hours a day and offers a range of services, including fuel, snacks, and drinks. The station has received positive reviews from customers, who praise its cleanliness, friendly staff, and convenient location.</t>
         </is>
       </c>
     </row>
@@ -21981,7 +21802,7 @@
       </c>
       <c r="Y210" t="inlineStr">
         <is>
-          <t>If you're in Monastir and looking for a transportation option, check out Station STS Monastir at QRFG+786 Station STS Monastir. This popular spot is perfect for those seeking a bus and coach transport company. With a rating of 2.9, it's considered a noteworthy destination. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit the website or call them at 31 384 050.</t>
+          <t>Station STS Monastir is a bus and coach transport company located in Monastir, Tunisia. It offers transportation services to various destinations. The company has a rating of 2.9 out of 5 based on 15 reviews. It is located at QRFG+786 Station STS Monastir, Monastir, Tunisia, with coordinates (35.7692625, 10.819974).</t>
         </is>
       </c>
     </row>
@@ -22076,7 +21897,7 @@
       </c>
       <c r="Y211" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a convenient transportation hub, Gare Routiere de monastir should be on your list. Located at QRFG+865 Gare Routiere de monastir, Monastir, this top-rated destination is perfect for bus and autocar enthusiasts. With a rating of 3.6 based on 14 reviews, it's a must-visit spot for reliable transportation needs. As it's a bus and autocar company, it doesn't have specific operating hours or closed days. The provided link, https://www.google.com/maps/place/Gare+Routi%C3%A8re+de+monastir/data=!4m7!3m6!1s0x130212cb278725d9:0xae0c0c18f2aa2ca8!8m2!3d35.7732706!4d10.825621!16s%2Fg%2F11cr_7t30k!19sChIJ2SWHJ8sSAhMRqCyq8hgMDK4?authuser=0&amp;hl=fr&amp;rclk=1, provides more details, but you can also reach out to the owner, Gare Routiere de monastir (proprietaire), for any specific queries.</t>
+          <t>The Gare Routière de Monastir is a bus terminal located in Monastir, Tunisia. Situated at coordinates (35.77799, 10.82617), the terminal offers bus transportation services to various destinations. With a rating of 3.6, the terminal provides a central hub for travelers to access convenient and efficient bus services.</t>
         </is>
       </c>
     </row>
@@ -22175,7 +21996,7 @@
       </c>
       <c r="Y212" t="inlineStr">
         <is>
-          <t>If you're in Monastir and looking for a reliable bus company, consider Frina Station D'autobus. Located at PRF9+M3G Frina Station D'autobus, this top-rated destination offers a range of services for bus lovers. With a rating of 3.4, it's a must-visit spot. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, call them at 73 227 170.</t>
+          <t>Frina Station D'autobus is a bus station located at PRF9+M3G Frina Station D'autobus, Monastir, Tunisia, with coordinates (35.7692625, 10.819974). It offers bus services and has a rating of 3.4 based on 10 reviews. Passengers can reach the station at +216 73 227 170 for inquiries.</t>
         </is>
       </c>
     </row>
@@ -22274,7 +22095,7 @@
       </c>
       <c r="Y213" t="inlineStr">
         <is>
-          <t>If you're in monastir, consider visiting Station Taxis MONASTIR, a Station de taxis at MRPR+VX2 Station Taxis MONASTIR, Ksibet El Mediouni. With a rating of 3.8 out of 5, it's a popular spot for locals and tourists alike. They're open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 35.6809982, 10.8394698. For more info, check out their link: [link].</t>
+          <t>Station Taxis MONASTIR is a taxi station located in MRPR+VX2, Ksibet El Mediouni, Monastir, Tunisia (35.6809982, 10.8394698). It has 9 reviews and a rating of 3.8.</t>
         </is>
       </c>
     </row>
@@ -22369,7 +22190,7 @@
       </c>
       <c r="Y214" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a trusted Agence de vente de tickets de bus, check out Station Car mHT@ lHflt located at QRFG+7CJ Station Car mHT@ lHflt, Unnamed Road, Monastir. This top-rated destination is perfect for Agence de vente de tickets de bus lovers and offers a range of Agence de vente de tickets de bus to choose from. With a rating of 3.3, it's a must-visit spot. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their website at https://www.google.com/maps/place/Station+Car+%D9%85%D8%AD%D8%B7%D8%A9+%D8%A7%D9%84%D8%AD%D8%A7%D9%81%D9%84%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x130212cb2e440cd3:0xa80835e86623aad6!8m2!3d35.7732021!4d10.826026!16s%2Fg%2F11fzhd7m0g!19sChIJ0wxELssSAhMR1qojZug1CKg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Station Car mHT@ lHflt is a bus ticket sales agency located in Monastir, Tunisia. Its address is: QRFG+7CJ Station Car mHT@ lHflt, Unnamed Road, Monastir and its coordinates are: (35.7692625, 10.819974). It has a 3.3 rating out of 8 reviews and is owned by Station Car mHT@ lHflt (proprietaire).</t>
         </is>
       </c>
     </row>
@@ -22468,7 +22289,7 @@
       </c>
       <c r="Y215" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a reliable taxi service, consider Station Taxi Monastir~Sahline located at QRFF+5XJ Station Taxi Monastir~Sahline, Monastir. This highly-rated destination offers a range of taxi services and is perfect for transportation needs. With a rating of 3.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.7516882, 10.7113385. For more details, call them at 25 349 808.</t>
+          <t>Station Taxi Monastir~Sahline is a taxi station located in Monastir, Tunisia. It offers taxi services to its customers. The station is located at QRFF+5XJ, Monastir. It has a rating of 3.0 out of 5 on Google reviews.</t>
         </is>
       </c>
     </row>
@@ -22563,10 +22384,7 @@
       </c>
       <c r="Y216" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out station faculte 2 located at QR65+9PM station faculte 2, Monastir. 
-This top-rated destination is perfect for Compagnie ferroviaire metropolitaine lovers. 
-With a rating of 4.0, it's a must-visit spot. 
-To get there, use these GPS coordinates: 35.7692625, 10.819974.</t>
+          <t>Station Faculte 2 is a railway station in Monastir, Tunisia. It is located at coordinates (35.7692625, 10.819974) and has a rating of 4.0 out of 5 based on 4 reviews. The station is owned by "station faculte 2 (proprietaire)" and offers railway services.</t>
         </is>
       </c>
     </row>
@@ -22661,7 +22479,7 @@
       </c>
       <c r="Y217" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a reliable transportation service, consider Monastir Airport Station located at QQ73+3R7 Monastir Airport Station, Monastir. This highly-rated destination is perfect for travelers and offers a range of transportation services to choose from. With a rating of 3.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.7692625, 10.819974.</t>
+          <t>Monastir Airport Station, located in Monastir, Tunisia, is a convenient transportation hub for travelers. With a rating of 3.0 based on 3 reviews, it provides essential transportation services. Situated at the coordinates (35.7692625, 10.819974), the station offers accessibility and ease of travel in the region. Its main category is Transportation Service, ensuring efficient movement of people and goods.</t>
         </is>
       </c>
     </row>
@@ -22756,9 +22574,7 @@
       </c>
       <c r="Y218" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a reliable bus company, check out Station autobus located at QMFQ+7MP Station autobus, Monastir. 
-This top-rated destination is perfect for travel and offers a range of services to choose from. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 35.7692625, 10.819974. For more details, visit their website at https://www.google.com/maps/place/Station+autobus/data=!4m7!3m6!1s0x13020bcf796f7dcd:0x82b34ff08f503845!8m2!3d35.7732239!4d10.6891907!16s%2Fg%2F11jnlq0m5s!19sChIJzX1vec8LAhMRRThQj_BPs4I?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Station autobus is a bus company located in QMFQ+7MP Station autobus, Monastir with coordinates of (35.7692625, 10.819974).</t>
         </is>
       </c>
     </row>
@@ -22853,7 +22669,7 @@
       </c>
       <c r="Y219" t="inlineStr">
         <is>
-          <t>If you're in Monastir and looking for a reliable transportation option, Station Autobus is an excellent choice. Located at QQ62+RWM, this reputable bus company has a rating of 3.0. It's perfect for travelers and commuters alike, catering to their bus transportation needs. For more information, visit their website at https://www.google.com/maps/place/Station+autobus/data=!4m7!3m6!1s0x13020d6cc747aff1:0x47daecab4240d5a1!8m2!3d35.7620786!4d10.7523007!16s%2Fg%2F11jnktty59!19sChIJ8a9Hx2wNAhMRodVAQqvs2kc?authuser=0&amp;hl=fr&amp;rclk=1 or call them to inquire about schedules and fares.</t>
+          <t>**Station autobus** is a bus company located in Monastir, Tunisia. It offers bus services to various destinations. The company has a rating of 3.0 out of 5 stars on Google. Its coordinates are (35.7692625, 10.819974).</t>
         </is>
       </c>
     </row>
@@ -22948,7 +22764,7 @@
       </c>
       <c r="Y220" t="inlineStr">
         <is>
-          <t>If you're in monastir, Station autobus Skanes - Les Palmiers is a top-rated Compagnie d'autobus destination worth checking out. Located at QQHQ+2XJ Station autobus Skanes - Les Palmiers, Monastir, it offers a range of services to choose from. With a rating of 3.0, this is a must-visit spot for Compagnie d'autobus lovers. To get there, use these GPS coordinates: 35.7749, 10.79464. For more details, visit their website at https://www.google.com/maps/place/Station+autobus+Skan%C3%A8s+-+Les+Palmiers/data=!4m7!3m6!1s0x1302732a7e9cd157:0x33515848c7c8c523!8m2!3d35.7775864!4d10.7898886!16s%2Fg%2F11tjzz4y2r!19sChIJV9GcfipzAhMRI8XIx0hYUTM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Station autobus Skanes - Les Palmiers is a bus station located at QQHQ+2XJ Station autobus Skanes - Les Palmiers, Monastir. It is owned by Station autobus Skanes - Les Palmiers (proprietaire). The bus station offers transportation services and is open 24/7. It has a rating of 3.0 based on 1 review.</t>
         </is>
       </c>
     </row>
@@ -23043,7 +22859,7 @@
       </c>
       <c r="Y221" t="inlineStr">
         <is>
-          <t>If you're in Monastir and looking for a reliable transportation option, Station autobus is a top-rated destination. Located at QP6W+7FV Station autobus, this company provides bus services that cater to a range of needs. With a rating of 4.0, it's a must-visit spot for those seeking convenient and affordable transportation. For more details, visit their website at https://www.google.com/maps/place/Station+autobus/data=!4m7!3m6!1s0x13020d0f684940e9:0x583327e00853b729!8m2!3d35.7607373!4d10.7461682!16s%2Fg%2F11jnft8gzv!19sChIJ6UBJaA8NAhMRKbdTCOAnM1g?authuser=0&amp;hl=fr&amp;rclk=1 or call them at [phone_number].</t>
+          <t>Located in Monastir, Tunisia at the coordinates (35.7692625, 10.819974), Station Autobus is a bus company that offers transportation services. It has a rating of 4.0 and falls under the main category of Bus Company.</t>
         </is>
       </c>
     </row>
@@ -23138,7 +22954,7 @@
       </c>
       <c r="Y222" t="inlineStr">
         <is>
-          <t>Calling all monastir locals! In search of a trusted transportation hub? Station louage Sahline-Monastir is your answer. Located conveniently at QP26+JPX Station louage Sahline-Monastir, Sahline, this station is a top-rated destination for those seeking reliable taxi services. With a rating of 4.0, Station louage Sahline-Monastir is a must-visit spot for your travel needs. Please note that the station's GPS coordinates are (35.75166, 10.71109) for easy navigation.</t>
+          <t>Station louage Sahline-Monastir is a taxi station located in Sahline, Monastir (Tunisia). It is georeferenced at (35.75166, 10.71109). It offers taxi services.</t>
         </is>
       </c>
     </row>
@@ -23233,9 +23049,7 @@
       </c>
       <c r="Y223" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for something fun to do, check out Station autobus located at QQ97+5W6 Station autobus, Lac de Monastir, Sahline. 
-This top-rated destination is perfect for Compagnie d'autobus lovers. 
-With a rating of 3.0, it's a must-visit spot.</t>
+          <t>Station autobus is a bus company located in Sahline, Tunisia. It offers bus services to various destinations in the region. The company is well-rated by its customers, with an average rating of 3.0 out of 5. It is located at the coordinates (35.75166, 10.71109).</t>
         </is>
       </c>
     </row>
@@ -23330,8 +23144,7 @@
       </c>
       <c r="Y224" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a Station-service, check out Satation de autobus faculte de sciences located at QR74+HH7 Satation de autobus faculte de sciences, Monastir. 
-This top-rated destination is perfect for Station-service lovers and offers a rating of 4.0. It's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Satation+de+autobus+facult%C3%A9+de+sciences/data=!4m7!3m6!1s0x13021337b90a14b7:0x250f15732d74d86d!8m2!3d35.7639087!4d10.806423!16s%2Fg%2F11sq_yyztx!19sChIJtxQKuTcTAhMRbdh0LXMVDyU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>"Satation de autobus faculte de sciences" is a gas station located in Monastir, Tunisia. It is situated at (35.7635567, 10.8055156). It has a rating of 4.0 out of 5 based on 1 review. Unfortunately, there is no detailed description or information about its services available at this time.</t>
         </is>
       </c>
     </row>
@@ -23422,7 +23235,7 @@
       </c>
       <c r="Y225" t="inlineStr">
         <is>
-          <t>If you're in monastir and looking for a reliable transportation service, check out Train station Hbib Bourgiba located at QR76+PG3 Train station Hbib Bourgiba, Monastir. This top-rated destination is perfect for transportation lovers and offers a range of services to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.6324186805, 10.898585985759.</t>
+          <t>Train station Hbib Bourgiba in Monastir, Tunisia, is a transportation hub for travelers. It is located at coordinates (35.6324186805, 10.898585985759) and offers various services to passengers, providing a central location for embarking and disembarking trains.</t>
         </is>
       </c>
     </row>
